--- a/Milestone1/eMart Wireframe.xlsx
+++ b/Milestone1/eMart Wireframe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Signup (Buyer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,7 +29,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Search an Item</t>
+    <t>Item Search Results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Specifications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,16 +1162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>77391</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>89115</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>258642</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1176,8 +1180,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="600076" y="9448801"/>
-          <a:ext cx="6078140" cy="400050"/>
+          <a:off x="1601986" y="10596994"/>
+          <a:ext cx="6040868" cy="404191"/>
           <a:chOff x="600076" y="9448801"/>
           <a:chExt cx="6078140" cy="400050"/>
         </a:xfrm>
@@ -1248,6 +1252,4188 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="10690777"/>
+          <a:ext cx="9873284" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="10210800"/>
+          <a:ext cx="847725" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Buy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> Item</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>14511</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>199523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>127154</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>218243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="20503" b="84512" l="16593" r="76601"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9092" t="12502" r="15898" b="7487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8959728" y="9782501"/>
+          <a:ext cx="311426" cy="308612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40424</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49949</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>228474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="文本框 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1829467" y="10372185"/>
+          <a:ext cx="1202221" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Purchase history</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>10197</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>19722</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="文本框 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9352980" y="10063371"/>
+          <a:ext cx="1202220" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>125482</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>217832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文本框 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3097696" y="10361543"/>
+          <a:ext cx="1202221" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>View Discounts</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>207065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>223631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215348" y="11835848"/>
+          <a:ext cx="9682369" cy="306457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>231914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>67505</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>250964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="文本框 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1250675" y="11860697"/>
+          <a:ext cx="1202221" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Item</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>215349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>125483</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>234399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="文本框 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3892827" y="11844132"/>
+          <a:ext cx="1202221" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Price △▽</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>24849</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>223633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>242683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文本框 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5789545" y="11852416"/>
+          <a:ext cx="1217542" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sales volume△▽</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>281608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207065" y="12299673"/>
+          <a:ext cx="770283" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Item Picture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91108</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="文本框 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1283804" y="12316239"/>
+          <a:ext cx="2932044" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Samsung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Galaxy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> s7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99388</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>273325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文本框 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876258" y="12291390"/>
+          <a:ext cx="712307" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>$ 123456</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>157370</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>223630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>242680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="文本框 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4928153" y="11562521"/>
+          <a:ext cx="753717" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Seller</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>149084</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>256759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="文本框 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4919867" y="12274824"/>
+          <a:ext cx="712307" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Seller1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33127</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>256758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="文本框 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5797823" y="12274823"/>
+          <a:ext cx="712307" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>121</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>91108</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="文本框 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048499" y="12324522"/>
+          <a:ext cx="1134718" cy="182217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>View Details &gt;&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接连接符 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182218" y="13210762"/>
+          <a:ext cx="9732065" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>281608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="文本框 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207065" y="12299673"/>
+          <a:ext cx="770283" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Item Picture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91108</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="文本框 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1283804" y="12316239"/>
+          <a:ext cx="2932044" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Oppo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>A5S</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99388</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>273325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="文本框 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876258" y="12291390"/>
+          <a:ext cx="712307" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>$ 8838</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>149084</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>256759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="文本框 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4919867" y="12274824"/>
+          <a:ext cx="712307" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Seller2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33127</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>256758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="文本框 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5797823" y="12274823"/>
+          <a:ext cx="712307" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>300</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>91108</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="文本框 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048499" y="12324522"/>
+          <a:ext cx="1134718" cy="182217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>View Details &gt;&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直接连接符 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182218" y="14370327"/>
+          <a:ext cx="9748630" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>107673</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1159565" y="11496261"/>
+          <a:ext cx="1333499" cy="256761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Any</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150330</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>168137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="文本框 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="140805" y="11487979"/>
+          <a:ext cx="1202221" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Manufacturer</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>173937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>176421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="文本框 64"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2203174" y="11496263"/>
+          <a:ext cx="347870" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>▽</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>159854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="文本框 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2683566" y="11479696"/>
+          <a:ext cx="596347" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Price</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3139108" y="11487978"/>
+          <a:ext cx="695741" cy="256761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8000</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4108173" y="11487978"/>
+          <a:ext cx="695741" cy="256761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13000</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57981</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57981</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>159854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="文本框 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3834851" y="11479696"/>
+          <a:ext cx="596347" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>~</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="文本框 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4977848" y="11479696"/>
+          <a:ext cx="505239" cy="265043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Filter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="矩形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107674" y="10046804"/>
+          <a:ext cx="9889435" cy="6269934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>154817</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>14012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="869674" y="15728674"/>
+          <a:ext cx="3857143" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>91108</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>4969</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="图片 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="20503" b="84512" l="16593" r="76601"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9092" t="12502" r="15898" b="7487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5259456" y="17162305"/>
+          <a:ext cx="311426" cy="308612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>20534</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>30058</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>68746</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="文本框 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5586447" y="17186413"/>
+          <a:ext cx="1202220" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124238</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>124243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>41417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="文本框 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="720586" y="18130634"/>
+          <a:ext cx="1656522" cy="1656522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Item Picture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>118445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="文本框 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="993914" y="19845134"/>
+          <a:ext cx="240196" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>182219</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24850</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>118445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="文本框 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1176132" y="19845134"/>
+          <a:ext cx="240196" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>118445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="文本框 88"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1391478" y="19845134"/>
+          <a:ext cx="240196" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8281</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>118445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="文本框 89"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1598542" y="19845134"/>
+          <a:ext cx="240196" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>49694</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>240197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>259248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="文本框 90"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646042" y="17666806"/>
+          <a:ext cx="1714502" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;&lt;Back to Search Results</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>157372</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>265043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>124243</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="右大括号 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096502" y="11893826"/>
+          <a:ext cx="165654" cy="3544957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50701"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>140806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10378110" y="13508936"/>
+          <a:ext cx="2029238" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Use scrollbar,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> if requried</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>198780</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198781</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="右大括号 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6361041" y="20524305"/>
+          <a:ext cx="198783" cy="2509630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50701"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>140803</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>182215</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="文本框 92"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6700629" y="21551349"/>
+          <a:ext cx="2029238" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Use scrollbar,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> if requried</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8285</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>135006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="文本框 93"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="18122347"/>
+          <a:ext cx="1714502" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Oppo A5S</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>173933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="文本框 94"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2749826" y="18395674"/>
+          <a:ext cx="1648239" cy="364433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$ 8838</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>281605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>41416</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>10764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="文本框 95"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2700131" y="18867779"/>
+          <a:ext cx="1714502" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Seller2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>281605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>41416</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>10764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="文本框 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2700131" y="19157670"/>
+          <a:ext cx="1714502" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sales volume  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>300</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>273326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="文本框 97"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362740" y="19488979"/>
+          <a:ext cx="563217" cy="240195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115955</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>157367</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="文本框 98"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2700129" y="19455848"/>
+          <a:ext cx="637760" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Number</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>195470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="文本框 99"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2782957" y="19903109"/>
+          <a:ext cx="1184413" cy="327991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Checkout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>195470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="文本框 100"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4075044" y="19903109"/>
+          <a:ext cx="1184413" cy="327991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Add to cart</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>107676</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21537</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>192655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="图片 101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="20503" b="84512" l="16593" r="76601"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9092" t="12502" r="15898" b="7487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083328" y="19919673"/>
+          <a:ext cx="311426" cy="308612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66260</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直接连接符 103"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="513521" y="20524304"/>
+          <a:ext cx="5516217" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>124241</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>265045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="文本框 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795130" y="20615413"/>
+          <a:ext cx="1714502" cy="1424610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Screen Resolution:1080p</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Network</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Type:4G</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Battery Capactity: 3000mA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Memory Storage:64G</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107673</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33132</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>265045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="文本框 105"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2890630" y="20615413"/>
+          <a:ext cx="1714502" cy="1424610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cameras:1000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>OS Version:Android</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> 11</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91108</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>240196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="289891" y="17087022"/>
+          <a:ext cx="5971761" cy="5963478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>85314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="文本框 106"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646043" y="22710915"/>
+          <a:ext cx="1714502" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;&lt;Back to Search Results</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3294,10 +7480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF38" sqref="AF38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -3323,13 +7509,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:3" ht="24" x14ac:dyDescent="0.35">
-      <c r="C40" s="3"/>
+    <row r="39" spans="3:3" ht="24" x14ac:dyDescent="0.35">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Milestone1/eMart Wireframe.xlsx
+++ b/Milestone1/eMart Wireframe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Buyer" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Signup (Buyer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,7 +33,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Shopping Cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Item Specifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electronic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -41,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +116,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,11 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -121,6 +171,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaRange="$BB$52:$BB$54" noThreeD="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaRange="$BH$52:$BH$54" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3522,140 +3592,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>91108</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>25588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>4969</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>44308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="图片 72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId4">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="20503" b="84512" l="16593" r="76601"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="9092" t="12502" r="15898" b="7487"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5259456" y="17162305"/>
-          <a:ext cx="311426" cy="308612"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>20534</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>30058</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>68746</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="文本框 73"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5586447" y="17186413"/>
-          <a:ext cx="1202220" cy="308942"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Logout</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>124238</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>124243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>41417</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3718,13 +3663,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>99395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>41414</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>118445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3794,13 +3739,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>182219</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>99395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>24850</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>118445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3870,13 +3815,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>99395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>118445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3946,13 +3891,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>8281</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>99395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>118445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4005,82 +3950,6 @@
             <a:t>4</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0" u="sng">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>49694</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>240197</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>173935</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>259248</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="文本框 90"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="646042" y="17666806"/>
-          <a:ext cx="1714502" cy="308942"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;&lt;Back to Search Results</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -4219,16 +4088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>198780</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>198783</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>198781</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>240196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4237,8 +4106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6361041" y="20524305"/>
-          <a:ext cx="198783" cy="2509630"/>
+          <a:off x="10129628" y="20855609"/>
+          <a:ext cx="198783" cy="2509631"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -4274,16 +4143,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>140803</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>66262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>182215</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>57979</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>132520</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>173932</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4292,7 +4161,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6700629" y="21551349"/>
+          <a:off x="10469216" y="21882653"/>
           <a:ext cx="2029238" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4345,13 +4214,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>8285</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>135006</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4421,13 +4290,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>173933</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4497,13 +4366,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>281605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>41416</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>10764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4573,13 +4442,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>281605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>41416</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>10764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4661,13 +4530,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>182218</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>33131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>273326</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4727,13 +4596,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>115955</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>157367</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4803,13 +4672,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>195470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4862,13 +4731,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>99392</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>91109</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>195470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4926,13 +4795,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>107676</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>173934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>21537</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>192655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4975,13 +4844,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>66260</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4991,8 +4860,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="513521" y="20524304"/>
-          <a:ext cx="5516217" cy="0"/>
+          <a:off x="513521" y="20814195"/>
+          <a:ext cx="9442175" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5019,13 +4888,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>124241</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>265045</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5193,13 +5062,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>107673</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>33132</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>265045</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5302,76 +5171,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>91108</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>240196</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>99391</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66260</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="矩形 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="289891" y="17087022"/>
-          <a:ext cx="5971761" cy="5963478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>66263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>173936</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>85314</xdr:rowOff>
+      <xdr:rowOff>173937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>192988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5380,8 +5189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="646043" y="22710915"/>
-          <a:ext cx="1714502" cy="308942"/>
+          <a:off x="4041912" y="23108480"/>
+          <a:ext cx="1714502" cy="308943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5421,7 +5230,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;&lt;Back to Search Results</a:t>
+            <a:t>&lt;&lt;Back to Search</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
             <a:solidFill>
@@ -5431,6 +5240,5452 @@
             <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直接连接符 102"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="10400886"/>
+          <a:ext cx="9873284" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="文本框 107"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="957055" y="10063370"/>
+          <a:ext cx="841513" cy="327991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Buy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> Item</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>14511</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>199523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>127154</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>218243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="图片 108"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="20503" b="84512" l="16593" r="76601"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9092" t="12502" r="15898" b="7487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8959728" y="9782501"/>
+          <a:ext cx="311426" cy="308612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40424</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>209424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49949</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>228474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="文本框 109"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1829467" y="10082294"/>
+          <a:ext cx="1202221" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Purchase history</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>10197</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>19722</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="文本框 110"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9352980" y="9773479"/>
+          <a:ext cx="1202220" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>125482</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>217832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="文本框 111"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3097696" y="10071652"/>
+          <a:ext cx="1202221" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>View Discounts</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107675</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57980</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>265042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="矩形 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107675" y="17219542"/>
+          <a:ext cx="9889435" cy="6269935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66260</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>173937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>192988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="文本框 132"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4041912" y="23108480"/>
+          <a:ext cx="1714502" cy="308943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;&lt;Back to Search</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直接连接符 133"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="17954625"/>
+          <a:ext cx="9873284" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="文本框 134"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="957055" y="17617109"/>
+          <a:ext cx="841513" cy="327991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Buy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> Item</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>14511</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>199523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>127154</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>218243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="图片 135"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="20503" b="84512" l="16593" r="76601"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9092" t="12502" r="15898" b="7487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8959728" y="17336240"/>
+          <a:ext cx="311426" cy="308612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40424</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49949</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>228474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="文本框 136"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1829467" y="17636033"/>
+          <a:ext cx="1202221" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Purchase history</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>10197</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>19722</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="文本框 137"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9352980" y="17327218"/>
+          <a:ext cx="1202220" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>125482</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>217832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="文本框 138"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3097696" y="17625391"/>
+          <a:ext cx="1202221" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>View Discounts</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107675</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57980</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>265042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="矩形 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107675" y="17219542"/>
+          <a:ext cx="9889435" cy="6269935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>140808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>157375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="矩形 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="240197" y="25394482"/>
+          <a:ext cx="9682369" cy="306458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165651</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>165657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175176</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>184708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="文本框 141"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563216" y="25419331"/>
+          <a:ext cx="1202221" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Item</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>149092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>150332</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>168143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="文本框 142"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3917676" y="25402766"/>
+          <a:ext cx="1202221" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Price </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>24851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24845</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>49698</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="文本框 144"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612912" y="25858308"/>
+          <a:ext cx="604629" cy="604629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Picture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99390</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>41417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>231918</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="文本框 145"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689651" y="25874874"/>
+          <a:ext cx="2932044" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Samsung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Galaxy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> s7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>124237</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>16568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>207069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="文本框 146"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901107" y="25850025"/>
+          <a:ext cx="778567" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>$ 123,456</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>182219</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>157373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>176424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="文本框 147"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953002" y="25411047"/>
+          <a:ext cx="753717" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Number</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>41418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>248478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="文本框 150"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="25874875"/>
+          <a:ext cx="563217" cy="207060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8284</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>182221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>182221</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="直接连接符 151"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207067" y="26595460"/>
+          <a:ext cx="9732065" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="文本框 152"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4986131" y="25883153"/>
+          <a:ext cx="563217" cy="240195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1243</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>168137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="文本框 153"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6352761" y="25402760"/>
+          <a:ext cx="1202221" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Price </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>173933</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>16568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>207069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="文本框 154"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6336194" y="25850025"/>
+          <a:ext cx="770284" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>$ 123,456</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16561</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="文本框 155"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="604628" y="26711413"/>
+          <a:ext cx="604629" cy="604629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Picture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91106</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>24849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>41411</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>215349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="文本框 156"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1681367" y="26727979"/>
+          <a:ext cx="2932044" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Oppo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>A5S</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>115953</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="文本框 157"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3892823" y="26703130"/>
+          <a:ext cx="712307" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>$ 8,838</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>24850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>157368</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>231910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="文本框 158"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9135716" y="26727980"/>
+          <a:ext cx="563217" cy="207060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="直接连接符 159"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198783" y="27448565"/>
+          <a:ext cx="9732065" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>33128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>273323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="文本框 160"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4977847" y="26736258"/>
+          <a:ext cx="563217" cy="240195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>165649</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="文本框 161"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6327910" y="26703130"/>
+          <a:ext cx="712307" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>$ 17,676</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>50110</xdr:colOff>
+          <xdr:row>89</xdr:row>
+          <xdr:rowOff>108088</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>154885</xdr:colOff>
+          <xdr:row>90</xdr:row>
+          <xdr:rowOff>98563</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>64189</xdr:colOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>146187</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>168965</xdr:colOff>
+          <xdr:row>88</xdr:row>
+          <xdr:rowOff>136663</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>164663</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>85185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="文本框 162"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7519620" y="27657989"/>
+          <a:ext cx="820968" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Total Tax</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>40424</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>85185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="文本框 163"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8389294" y="27657989"/>
+          <a:ext cx="820968" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>$100</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>164662</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>99390</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>104235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="文本框 164"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7519619" y="27947880"/>
+          <a:ext cx="928641" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Total Price</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>32142</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>101749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57980</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>120800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="文本框 165"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8381012" y="27964445"/>
+          <a:ext cx="820968" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>$141,232</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>107672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="文本框 166"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7098196" y="28260259"/>
+          <a:ext cx="1225826" cy="331305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Apply Discount</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>157370</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="文本框 167"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8506240" y="28260260"/>
+          <a:ext cx="1225826" cy="331305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Checkout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="线形标注 2 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10104783" y="29204479"/>
+          <a:ext cx="1905000" cy="819978"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -73467"/>
+            <a:gd name="adj6" fmla="val -107445"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>When 'Apply Discount'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> clicked display small text , for User fill to Discount code, and when applyed deduct appropriate %</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="文本框 168"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11678478" y="30546261"/>
+          <a:ext cx="1432891" cy="240195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>142047</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>68745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="文本框 169"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="30521412"/>
+          <a:ext cx="1202221" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Discount code</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>289886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="文本框 171"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13252174" y="30554543"/>
+          <a:ext cx="563217" cy="207060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Apply</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>231910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>248476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10601739" y="30123845"/>
+          <a:ext cx="3511826" cy="886240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>240194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>382</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>178874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13856804" y="30132129"/>
+          <a:ext cx="257143" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66260</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>173937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>192988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="文本框 172"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4041912" y="30355763"/>
+          <a:ext cx="1714502" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;&lt;Back to Search</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="直接连接符 173"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="25201908"/>
+          <a:ext cx="9873284" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="文本框 174"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="957055" y="24864391"/>
+          <a:ext cx="841513" cy="327992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Buy Item</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>14511</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>199523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>127154</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>218243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="176" name="图片 175"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="20503" b="84512" l="16593" r="76601"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9092" t="12502" r="15898" b="7487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8959728" y="24583523"/>
+          <a:ext cx="311426" cy="308611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40424</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>209424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49949</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>228474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="文本框 176"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1829467" y="24883315"/>
+          <a:ext cx="1202221" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Purchase history</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>10197</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>19722</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="文本框 177"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9352980" y="24574501"/>
+          <a:ext cx="1202220" cy="308941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>125482</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>217832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="文本框 178"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3097696" y="24872673"/>
+          <a:ext cx="1202221" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>View Discounts</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107675</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57980</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>265042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="矩形 179"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107675" y="24466825"/>
+          <a:ext cx="9889435" cy="6269934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>140808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>157375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="矩形 180"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="240197" y="25394482"/>
+          <a:ext cx="9682369" cy="306458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165651</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>165657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175176</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>184708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="文本框 181"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563216" y="25419331"/>
+          <a:ext cx="1202221" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Item</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>149092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>150332</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>168143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="文本框 182"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3917676" y="25402766"/>
+          <a:ext cx="1202221" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Price </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>24851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24845</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>49698</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="文本框 183"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612912" y="25858308"/>
+          <a:ext cx="604629" cy="604629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Picture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99390</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>41417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>231918</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="文本框 184"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689651" y="25874874"/>
+          <a:ext cx="2932044" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Samsung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Galaxy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> s7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>124237</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>16568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>207069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="文本框 185"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901107" y="25850025"/>
+          <a:ext cx="778567" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>$ 123,456</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>182219</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>157373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>176424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="文本框 186"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953002" y="25411047"/>
+          <a:ext cx="753717" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Number</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>41418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>248478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="文本框 187"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="25874875"/>
+          <a:ext cx="563217" cy="207060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>View</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8284</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>182221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>182221</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直接连接符 188"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207067" y="26595460"/>
+          <a:ext cx="9732065" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="文本框 189"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4986131" y="25883153"/>
+          <a:ext cx="563217" cy="240195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>175178</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>168137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="文本框 190"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6337439" y="32650043"/>
+          <a:ext cx="1232866" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Price </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>173933</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>16568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>207069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="文本框 191"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6336194" y="25850025"/>
+          <a:ext cx="770284" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>$ 123,456</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16561</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="文本框 192"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="604628" y="26711413"/>
+          <a:ext cx="604629" cy="604629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Picture</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91106</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>24849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>41411</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>215349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="文本框 193"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1681367" y="26727979"/>
+          <a:ext cx="2932044" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Oppo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>A5S</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>115953</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="文本框 194"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3892823" y="26703130"/>
+          <a:ext cx="712307" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>$ 8,838</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>24850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>157368</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>231910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="文本框 195"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9135716" y="26727980"/>
+          <a:ext cx="563217" cy="207060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>View</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="直接连接符 196"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198783" y="27448565"/>
+          <a:ext cx="9732065" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>33128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>273323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="文本框 197"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4977847" y="26736258"/>
+          <a:ext cx="563217" cy="240195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>165649</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="文本框 198"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6327910" y="26703130"/>
+          <a:ext cx="712307" cy="770283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>$ 17,676</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>15322</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>151573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="文本框 211"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7528891" y="32633479"/>
+          <a:ext cx="1232866" cy="308942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Datetime</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>124237</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>8286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>198787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="文本框 212"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7479194" y="33089025"/>
+          <a:ext cx="1449458" cy="770284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> Nov 2019</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>91107</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>16568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>207069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="文本框 213"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7446064" y="33966981"/>
+          <a:ext cx="1449458" cy="770284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> Nov 2019</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>82827</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="线形标注 2 214"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10303566" y="32360152"/>
+          <a:ext cx="1905000" cy="430696"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 179058"/>
+            <a:gd name="adj6" fmla="val -41793"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Display Item Specifications</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="右大括号 215"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10046804" y="25717500"/>
+          <a:ext cx="198783" cy="2509631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50701"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>91108</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="文本框 216"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10386392" y="26744544"/>
+          <a:ext cx="2029238" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Use scrollbar,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> if requried</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>82827</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>82827</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="右大括号 217"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10021957" y="32989631"/>
+          <a:ext cx="198783" cy="2509631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50701"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>82828</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>124240</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="文本框 218"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10419524" y="34058088"/>
+          <a:ext cx="2029238" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Use scrollbar,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> if requried</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7185,6 +12440,3217 @@
             <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>240196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="右大括号 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191748" y="20566546"/>
+          <a:ext cx="200025" cy="2472359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50701"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>132520</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>173932</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="文本框 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10533820" y="21577025"/>
+          <a:ext cx="2041662" cy="563217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Use scrollbar,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> if requried</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>192157</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>33955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>117616</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>48864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="文本框 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="992257" y="14340505"/>
+          <a:ext cx="1725684" cy="300659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select Category</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接连接符 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="17706975"/>
+          <a:ext cx="9935404" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="文本框 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="17373600"/>
+          <a:ext cx="847725" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> Item</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>14511</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>199523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>127154</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>218243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="图片 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="20503" b="84512" l="16593" r="76601"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9092" t="12502" r="15898" b="7487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9015636" y="17096873"/>
+          <a:ext cx="312668" cy="304470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>40424</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>209424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>49949</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>228474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="文本框 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2040674" y="13944474"/>
+          <a:ext cx="1209675" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Manage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Stock</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>10197</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>19722</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="文本框 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9411372" y="17087851"/>
+          <a:ext cx="1209675" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>125482</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>217832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="文本框 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3116332" y="17381882"/>
+          <a:ext cx="1209675" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Reports</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57980</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矩形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107675" y="13532125"/>
+          <a:ext cx="9951555" cy="7661000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47624</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>96909</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>43484</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="文本框 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="14906625"/>
+          <a:ext cx="1725684" cy="300659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select SubCategory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>26917</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>4145</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>4145</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106434</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>24434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="文本框 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="15497175"/>
+          <a:ext cx="1725684" cy="1119809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Item Name</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="文本框 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="15744825"/>
+          <a:ext cx="3181350" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Oppo A5S</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125484</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>119684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="文本框 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="16125825"/>
+          <a:ext cx="1725684" cy="300659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Price</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="文本框 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="16392525"/>
+          <a:ext cx="3181350" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$8,838</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144534</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>157784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="文本框 78"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="16735425"/>
+          <a:ext cx="1725684" cy="300659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>No. of Stock Items</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="文本框 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="17021175"/>
+          <a:ext cx="3181350" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直接连接符 80"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="18849975"/>
+          <a:ext cx="9591675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154059</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>224459</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="文本框 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="17373600"/>
+          <a:ext cx="1725684" cy="300659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Item Pictures</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="文本框 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="17697450"/>
+          <a:ext cx="3181350" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>261316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="文本框 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305301" y="17697449"/>
+          <a:ext cx="781050" cy="299417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Select</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>261316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="文本框 84"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162551" y="17697449"/>
+          <a:ext cx="781050" cy="299417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Upload</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144534</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>14909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="文本框 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="18021300"/>
+          <a:ext cx="1725684" cy="300659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Ebrima" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Ebrima" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Ebrima" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Min 1 Picture, Max 9 Pictures</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Ebrima" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Ebrima" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="文本框 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="14363700"/>
+          <a:ext cx="276225" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="文本框 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="14944725"/>
+          <a:ext cx="276225" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="文本框 88"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="15525750"/>
+          <a:ext cx="276225" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="文本框 89"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="16144875"/>
+          <a:ext cx="276225" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="文本框 90"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="16754475"/>
+          <a:ext cx="276225" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="文本框 91"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="17402175"/>
+          <a:ext cx="276225" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144534</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>243509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="文本框 92"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="18535650"/>
+          <a:ext cx="1725684" cy="300659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Product attributes</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1019175" y="18926176"/>
+          <a:ext cx="8439150" cy="476249"/>
+          <a:chOff x="1019175" y="18926176"/>
+          <a:chExt cx="8439150" cy="476249"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="矩形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1019175" y="18926176"/>
+            <a:ext cx="8439150" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="文本框 93"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1028700" y="19002375"/>
+            <a:ext cx="1219200" cy="300659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Attribute1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="文本框 94"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2133599" y="19002375"/>
+            <a:ext cx="2505075" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>N/W Type</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="文本框 95"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4857750" y="19011900"/>
+            <a:ext cx="1219200" cy="300659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Value</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="文本框 96"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="19011900"/>
+            <a:ext cx="3181350" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>4G</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="98" name="组合 97"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1019175" y="19469100"/>
+          <a:ext cx="8439150" cy="476249"/>
+          <a:chOff x="1019175" y="18926176"/>
+          <a:chExt cx="8439150" cy="476249"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="矩形 98"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1019175" y="18926176"/>
+            <a:ext cx="8439150" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="文本框 99"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1028700" y="19002375"/>
+            <a:ext cx="1219200" cy="300659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Attribute2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="文本框 100"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2133599" y="19002375"/>
+            <a:ext cx="2505075" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Memory Storage</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="文本框 101"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4857750" y="19011900"/>
+            <a:ext cx="1219200" cy="300659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Value</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="文本框 102"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="19011900"/>
+            <a:ext cx="3181350" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2G</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="104" name="组合 103"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1009650" y="20021550"/>
+          <a:ext cx="8439150" cy="476249"/>
+          <a:chOff x="1019175" y="18926176"/>
+          <a:chExt cx="8439150" cy="476249"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="矩形 104"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1019175" y="18926176"/>
+            <a:ext cx="8439150" cy="476249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="文本框 105"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1028700" y="19002375"/>
+            <a:ext cx="1219200" cy="300659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Attribute3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="文本框 106"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2133599" y="19002375"/>
+            <a:ext cx="2505075" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Memory Storage</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="文本框 107"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4857750" y="19011900"/>
+            <a:ext cx="1219200" cy="300659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Value</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="文本框 108"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5400675" y="19011900"/>
+            <a:ext cx="3181350" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2G</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="文本框 109"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677276" y="19030950"/>
+          <a:ext cx="695324" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Remove</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7479,11 +15945,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N84" sqref="N84"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -7514,7 +15980,17 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7522,15 +15998,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>89</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>90</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>92</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>93</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId6" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>87</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>88</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU32" sqref="AU32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC73" sqref="BC73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -7551,9 +16100,173 @@
         <v>2</v>
       </c>
     </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="53:62" x14ac:dyDescent="0.25">
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC52" s="4"/>
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="4"/>
+      <c r="BF52" s="4"/>
+      <c r="BG52" s="4"/>
+      <c r="BH52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI52" s="4"/>
+      <c r="BJ52" s="4"/>
+    </row>
+    <row r="53" spans="53:62" x14ac:dyDescent="0.25">
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC53" s="4"/>
+      <c r="BD53" s="4"/>
+      <c r="BE53" s="4"/>
+      <c r="BF53" s="4"/>
+      <c r="BG53" s="4"/>
+      <c r="BH53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI53" s="4"/>
+      <c r="BJ53" s="4"/>
+    </row>
+    <row r="54" spans="53:62" x14ac:dyDescent="0.25">
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC54" s="4"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
+      <c r="BF54" s="4"/>
+      <c r="BG54" s="4"/>
+      <c r="BH54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI54" s="4"/>
+      <c r="BJ54" s="4"/>
+    </row>
+    <row r="55" spans="53:62" x14ac:dyDescent="0.25">
+      <c r="BA55" s="4"/>
+      <c r="BB55" s="4"/>
+      <c r="BC55" s="4"/>
+      <c r="BD55" s="4"/>
+      <c r="BE55" s="4"/>
+      <c r="BF55" s="4"/>
+      <c r="BG55" s="4"/>
+      <c r="BH55" s="4"/>
+      <c r="BI55" s="4"/>
+      <c r="BJ55" s="4"/>
+    </row>
+    <row r="56" spans="53:62" x14ac:dyDescent="0.25">
+      <c r="BA56" s="4"/>
+      <c r="BB56" s="4"/>
+      <c r="BC56" s="4"/>
+      <c r="BD56" s="4"/>
+      <c r="BE56" s="4"/>
+      <c r="BF56" s="4"/>
+      <c r="BG56" s="4"/>
+      <c r="BH56" s="4"/>
+      <c r="BI56" s="4"/>
+      <c r="BJ56" s="4"/>
+    </row>
+    <row r="57" spans="53:62" x14ac:dyDescent="0.25">
+      <c r="BA57" s="4"/>
+      <c r="BB57" s="4"/>
+      <c r="BC57" s="4"/>
+      <c r="BD57" s="4"/>
+      <c r="BE57" s="4"/>
+      <c r="BF57" s="4"/>
+      <c r="BG57" s="4"/>
+      <c r="BH57" s="4"/>
+      <c r="BI57" s="4"/>
+      <c r="BJ57" s="4"/>
+    </row>
+    <row r="58" spans="53:62" x14ac:dyDescent="0.25">
+      <c r="BA58" s="4"/>
+      <c r="BB58" s="4"/>
+      <c r="BC58" s="4"/>
+      <c r="BD58" s="4"/>
+      <c r="BE58" s="4"/>
+      <c r="BF58" s="4"/>
+      <c r="BG58" s="4"/>
+      <c r="BH58" s="4"/>
+      <c r="BI58" s="4"/>
+      <c r="BJ58" s="4"/>
+    </row>
+    <row r="59" spans="53:62" x14ac:dyDescent="0.25">
+      <c r="BA59" s="4"/>
+      <c r="BB59" s="4"/>
+      <c r="BC59" s="4"/>
+      <c r="BD59" s="4"/>
+      <c r="BE59" s="4"/>
+      <c r="BF59" s="4"/>
+      <c r="BG59" s="4"/>
+      <c r="BH59" s="4"/>
+      <c r="BI59" s="4"/>
+      <c r="BJ59" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId3" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2050" r:id="rId4" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/Milestone1/eMart Wireframe.xlsx
+++ b/Milestone1/eMart Wireframe.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5FC749-8B9D-4544-BA0C-5D9DC3EA9F1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Buyer" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Signup (Buyer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,12 +80,19 @@
     <t>Reports</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +145,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,13 +184,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -204,6 +233,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaRange="$BH$52:$BH$54" noThreeD="1" sel="0" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaRange="$BM$52:$BM$54" noThreeD="1" sel="2" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -224,7 +257,7 @@
         <xdr:cNvPr id="11" name="文本框 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -305,7 +338,7 @@
         <xdr:cNvPr id="9" name="文本框 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -386,7 +419,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -430,7 +463,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -473,7 +506,7 @@
         <xdr:cNvPr id="39" name="文本框 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -554,7 +587,7 @@
         <xdr:cNvPr id="40" name="圆角矩形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -618,7 +651,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -662,7 +695,7 @@
         <xdr:cNvPr id="42" name="文本框 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -754,7 +787,7 @@
         <xdr:cNvPr id="51" name="矩形 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -820,7 +853,7 @@
         <xdr:cNvPr id="75" name="文本框 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +929,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -939,7 +972,7 @@
         <xdr:cNvPr id="78" name="文本框 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1020,7 +1053,7 @@
         <xdr:cNvPr id="79" name="圆角矩形 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1084,7 +1117,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1183,7 @@
         <xdr:cNvPr id="83" name="文本框 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1237,7 +1270,7 @@
         <xdr:cNvPr id="84" name="图片 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,7 +1313,7 @@
         <xdr:cNvPr id="85" name="文本框 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1394,7 @@
         <xdr:cNvPr id="88" name="组合 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1413,7 @@
           <xdr:cNvPr id="87" name="圆角矩形 86">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1429,7 +1462,7 @@
           <xdr:cNvPr id="86" name="图片 85">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1473,7 +1506,7 @@
         <xdr:cNvPr id="3" name="直接连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,7 +1556,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1625,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1680,7 @@
         <xdr:cNvPr id="29" name="文本框 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1762,7 @@
         <xdr:cNvPr id="30" name="文本框 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,88 +1828,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>198782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>125482</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>217832</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="文本框 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3097696" y="10361543"/>
-          <a:ext cx="1202221" cy="308941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>View Discounts</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -1893,7 +1844,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1916,7 @@
         <xdr:cNvPr id="36" name="文本框 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +1996,7 @@
         <xdr:cNvPr id="43" name="文本框 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2076,7 @@
         <xdr:cNvPr id="44" name="文本框 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2156,7 @@
         <xdr:cNvPr id="12" name="文本框 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2231,7 @@
         <xdr:cNvPr id="45" name="文本框 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2308,7 @@
         <xdr:cNvPr id="46" name="文本框 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2374,7 @@
         <xdr:cNvPr id="47" name="文本框 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2454,7 @@
         <xdr:cNvPr id="48" name="文本框 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2520,7 @@
         <xdr:cNvPr id="49" name="文本框 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,14 +2570,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>91108</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
@@ -2635,7 +2586,7 @@
         <xdr:cNvPr id="50" name="文本框 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,8 +2594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048499" y="12324522"/>
-          <a:ext cx="1134718" cy="182217"/>
+          <a:off x="8605630" y="12034631"/>
+          <a:ext cx="1134718" cy="182216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2700,7 +2651,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2701,7 @@
         <xdr:cNvPr id="53" name="文本框 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2776,7 @@
         <xdr:cNvPr id="54" name="文本框 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2898,7 +2849,7 @@
         <xdr:cNvPr id="55" name="文本框 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2915,7 @@
         <xdr:cNvPr id="56" name="文本框 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +2981,7 @@
         <xdr:cNvPr id="57" name="文本框 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,14 +3031,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>91108</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
@@ -3096,7 +3047,7 @@
         <xdr:cNvPr id="58" name="文本框 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,8 +3055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048499" y="12324522"/>
-          <a:ext cx="1134718" cy="182217"/>
+          <a:off x="8605630" y="13194196"/>
+          <a:ext cx="1134718" cy="182216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3161,7 +3112,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3162,7 @@
         <xdr:cNvPr id="63" name="矩形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3244,7 @@
         <xdr:cNvPr id="64" name="文本框 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +3323,7 @@
         <xdr:cNvPr id="65" name="文本框 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3403,7 @@
         <xdr:cNvPr id="66" name="文本框 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3531,7 +3482,7 @@
         <xdr:cNvPr id="67" name="矩形 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,7 +3564,7 @@
         <xdr:cNvPr id="68" name="矩形 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3695,7 +3646,7 @@
         <xdr:cNvPr id="69" name="文本框 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3774,7 +3725,7 @@
         <xdr:cNvPr id="70" name="文本框 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3839,7 +3790,7 @@
         <xdr:cNvPr id="71" name="矩形 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3905,7 +3856,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3949,7 +3900,7 @@
         <xdr:cNvPr id="76" name="文本框 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4024,7 +3975,7 @@
         <xdr:cNvPr id="80" name="文本框 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4106,7 +4057,7 @@
         <xdr:cNvPr id="81" name="文本框 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4188,7 +4139,7 @@
         <xdr:cNvPr id="89" name="文本框 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4270,7 +4221,7 @@
         <xdr:cNvPr id="90" name="文本框 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4351,7 +4302,7 @@
         <xdr:cNvPr id="17" name="右大括号 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4412,7 +4363,7 @@
         <xdr:cNvPr id="18" name="文本框 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4487,7 +4438,7 @@
         <xdr:cNvPr id="92" name="右大括号 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4548,7 +4499,7 @@
         <xdr:cNvPr id="93" name="文本框 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4623,7 +4574,7 @@
         <xdr:cNvPr id="94" name="文本框 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4705,7 +4656,7 @@
         <xdr:cNvPr id="95" name="文本框 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4787,7 +4738,7 @@
         <xdr:cNvPr id="96" name="文本框 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4869,7 +4820,7 @@
         <xdr:cNvPr id="97" name="文本框 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4947,86 +4898,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>182218</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>273326</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="文本框 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362740" y="19488979"/>
-          <a:ext cx="563217" cy="240195"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>115955</xdr:colOff>
+      <xdr:colOff>115954</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>157367</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82825</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
@@ -5035,7 +4914,7 @@
         <xdr:cNvPr id="99" name="文本框 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5043,8 +4922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2700129" y="19455848"/>
-          <a:ext cx="637760" cy="308942"/>
+          <a:off x="2700128" y="19745739"/>
+          <a:ext cx="762001" cy="308942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5117,7 +4996,7 @@
         <xdr:cNvPr id="100" name="文本框 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5182,7 +5061,7 @@
         <xdr:cNvPr id="101" name="文本框 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5252,7 +5131,7 @@
         <xdr:cNvPr id="102" name="图片 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5307,7 +5186,7 @@
         <xdr:cNvPr id="104" name="直接连接符 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5357,7 +5236,7 @@
         <xdr:cNvPr id="105" name="文本框 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5537,7 +5416,7 @@
         <xdr:cNvPr id="106" name="文本框 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5654,7 +5533,7 @@
         <xdr:cNvPr id="107" name="文本框 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5736,7 +5615,7 @@
         <xdr:cNvPr id="103" name="直接连接符 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5786,7 +5665,7 @@
         <xdr:cNvPr id="108" name="文本框 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5855,7 +5734,7 @@
         <xdr:cNvPr id="109" name="图片 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5910,7 +5789,7 @@
         <xdr:cNvPr id="110" name="文本框 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5992,7 +5871,7 @@
         <xdr:cNvPr id="111" name="文本框 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6058,88 +5937,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>198782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>125482</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>217832</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="文本框 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3097696" y="10071652"/>
-          <a:ext cx="1202221" cy="308941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>View Discounts</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107675</xdr:colOff>
       <xdr:row>59</xdr:row>
@@ -6156,7 +5953,7 @@
         <xdr:cNvPr id="113" name="矩形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6222,7 +6019,7 @@
         <xdr:cNvPr id="133" name="文本框 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6304,7 +6101,7 @@
         <xdr:cNvPr id="134" name="直接连接符 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6354,7 +6151,7 @@
         <xdr:cNvPr id="135" name="文本框 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000087000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6423,7 +6220,7 @@
         <xdr:cNvPr id="136" name="图片 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6478,7 +6275,7 @@
         <xdr:cNvPr id="137" name="文本框 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,7 +6357,7 @@
         <xdr:cNvPr id="138" name="文本框 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6626,88 +6423,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>198782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>125482</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>217832</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="文本框 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3097696" y="17625391"/>
-          <a:ext cx="1202221" cy="308941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>View Discounts</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107675</xdr:colOff>
       <xdr:row>84</xdr:row>
@@ -6724,7 +6439,7 @@
         <xdr:cNvPr id="140" name="矩形 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6790,7 +6505,7 @@
         <xdr:cNvPr id="141" name="矩形 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6862,7 +6577,7 @@
         <xdr:cNvPr id="142" name="文本框 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6942,7 +6657,7 @@
         <xdr:cNvPr id="143" name="文本框 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7022,7 +6737,7 @@
         <xdr:cNvPr id="145" name="文本框 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7097,7 +6812,7 @@
         <xdr:cNvPr id="146" name="文本框 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000092000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7174,7 +6889,7 @@
         <xdr:cNvPr id="147" name="文本框 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7240,7 +6955,7 @@
         <xdr:cNvPr id="148" name="文本框 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7320,7 +7035,7 @@
         <xdr:cNvPr id="151" name="文本框 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7385,7 +7100,7 @@
         <xdr:cNvPr id="152" name="直接连接符 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7435,7 +7150,7 @@
         <xdr:cNvPr id="153" name="文本框 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7515,7 +7230,7 @@
         <xdr:cNvPr id="154" name="文本框 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7595,7 +7310,7 @@
         <xdr:cNvPr id="155" name="文本框 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7661,7 +7376,7 @@
         <xdr:cNvPr id="156" name="文本框 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7736,7 +7451,7 @@
         <xdr:cNvPr id="157" name="文本框 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7809,7 +7524,7 @@
         <xdr:cNvPr id="158" name="文本框 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7875,7 +7590,7 @@
         <xdr:cNvPr id="159" name="文本框 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7940,7 +7655,7 @@
         <xdr:cNvPr id="160" name="直接连接符 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7990,7 +7705,7 @@
         <xdr:cNvPr id="161" name="文本框 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8070,7 +7785,7 @@
         <xdr:cNvPr id="162" name="文本框 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8141,7 +7856,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8208,7 +7923,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8275,7 +7990,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8337,7 +8052,7 @@
         <xdr:cNvPr id="163" name="文本框 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8418,7 +8133,7 @@
         <xdr:cNvPr id="164" name="文本框 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8499,7 +8214,7 @@
         <xdr:cNvPr id="165" name="文本框 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8580,7 +8295,7 @@
         <xdr:cNvPr id="166" name="文本框 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8661,7 +8376,7 @@
         <xdr:cNvPr id="167" name="文本框 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8731,7 +8446,7 @@
         <xdr:cNvPr id="168" name="文本框 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8796,7 +8511,7 @@
         <xdr:cNvPr id="6" name="线形标注 2 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8869,7 +8584,7 @@
         <xdr:cNvPr id="169" name="文本框 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8941,7 +8656,7 @@
         <xdr:cNvPr id="170" name="文本框 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9021,7 +8736,7 @@
         <xdr:cNvPr id="172" name="文本框 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9086,7 +8801,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9148,7 +8863,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9192,7 +8907,7 @@
         <xdr:cNvPr id="173" name="文本框 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9274,7 +8989,7 @@
         <xdr:cNvPr id="174" name="直接连接符 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9324,7 +9039,7 @@
         <xdr:cNvPr id="175" name="文本框 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9408,7 +9123,7 @@
         <xdr:cNvPr id="176" name="图片 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9463,7 +9178,7 @@
         <xdr:cNvPr id="177" name="文本框 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9542,7 +9257,7 @@
         <xdr:cNvPr id="178" name="文本框 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9608,88 +9323,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>198782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>125482</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>217832</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="文本框 178">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3097696" y="24872673"/>
-          <a:ext cx="1202221" cy="308942"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>View Discounts</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107675</xdr:colOff>
       <xdr:row>109</xdr:row>
@@ -9706,7 +9339,7 @@
         <xdr:cNvPr id="180" name="矩形 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9772,7 +9405,7 @@
         <xdr:cNvPr id="181" name="矩形 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9844,7 +9477,7 @@
         <xdr:cNvPr id="182" name="文本框 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9924,7 +9557,7 @@
         <xdr:cNvPr id="183" name="文本框 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10004,7 +9637,7 @@
         <xdr:cNvPr id="184" name="文本框 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10079,7 +9712,7 @@
         <xdr:cNvPr id="185" name="文本框 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10156,7 +9789,7 @@
         <xdr:cNvPr id="186" name="文本框 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10222,7 +9855,7 @@
         <xdr:cNvPr id="187" name="文本框 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10302,7 +9935,7 @@
         <xdr:cNvPr id="188" name="文本框 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10367,7 +10000,7 @@
         <xdr:cNvPr id="189" name="直接连接符 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10417,7 +10050,7 @@
         <xdr:cNvPr id="190" name="文本框 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10493,7 +10126,7 @@
         <xdr:cNvPr id="191" name="文本框 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10573,7 +10206,7 @@
         <xdr:cNvPr id="192" name="文本框 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10639,7 +10272,7 @@
         <xdr:cNvPr id="193" name="文本框 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10714,7 +10347,7 @@
         <xdr:cNvPr id="194" name="文本框 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10787,7 +10420,7 @@
         <xdr:cNvPr id="195" name="文本框 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10853,7 +10486,7 @@
         <xdr:cNvPr id="196" name="文本框 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10918,7 +10551,7 @@
         <xdr:cNvPr id="197" name="直接连接符 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10968,7 +10601,7 @@
         <xdr:cNvPr id="198" name="文本框 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11050,7 +10683,7 @@
         <xdr:cNvPr id="199" name="文本框 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11116,7 +10749,7 @@
         <xdr:cNvPr id="212" name="文本框 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11196,7 +10829,7 @@
         <xdr:cNvPr id="213" name="文本框 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11266,7 +10899,7 @@
         <xdr:cNvPr id="214" name="文本框 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11336,7 +10969,7 @@
         <xdr:cNvPr id="215" name="线形标注 2 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11405,7 +11038,7 @@
         <xdr:cNvPr id="216" name="右大括号 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11466,7 +11099,7 @@
         <xdr:cNvPr id="217" name="文本框 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11541,7 +11174,7 @@
         <xdr:cNvPr id="218" name="右大括号 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11602,7 +11235,7 @@
         <xdr:cNvPr id="219" name="文本框 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11659,6 +11292,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>273326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="文本框 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362740" y="19488979"/>
+          <a:ext cx="563217" cy="240195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11682,7 +11387,7 @@
         <xdr:cNvPr id="10" name="文本框 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11758,7 +11463,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11802,7 +11507,7 @@
         <xdr:cNvPr id="12" name="组合 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11810,8 +11515,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="707781" y="3467100"/>
-          <a:ext cx="5388271" cy="676275"/>
+          <a:off x="710648" y="3516796"/>
+          <a:ext cx="5414074" cy="684557"/>
           <a:chOff x="714375" y="9486900"/>
           <a:chExt cx="5447619" cy="676275"/>
         </a:xfrm>
@@ -11821,7 +11526,7 @@
           <xdr:cNvPr id="13" name="文本框 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11887,7 +11592,7 @@
           <xdr:cNvPr id="14" name="图片 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11915,7 +11620,7 @@
           <xdr:cNvPr id="15" name="文本框 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11997,7 +11702,7 @@
         <xdr:cNvPr id="16" name="圆角矩形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12061,7 +11766,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12069,8 +11774,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="800833" y="8861181"/>
-          <a:ext cx="1508614" cy="419048"/>
+          <a:off x="804655" y="8980004"/>
+          <a:ext cx="1515305" cy="427331"/>
           <a:chOff x="828675" y="10963275"/>
           <a:chExt cx="1524001" cy="419048"/>
         </a:xfrm>
@@ -12080,7 +11785,7 @@
           <xdr:cNvPr id="18" name="图片 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12109,7 +11814,7 @@
           <xdr:cNvPr id="19" name="文本框 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12202,7 +11907,7 @@
         <xdr:cNvPr id="21" name="组合 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12210,8 +11915,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="717306" y="4829175"/>
-          <a:ext cx="5388271" cy="676275"/>
+          <a:off x="720173" y="4895436"/>
+          <a:ext cx="5414074" cy="688699"/>
           <a:chOff x="714375" y="9486900"/>
           <a:chExt cx="5447619" cy="676275"/>
         </a:xfrm>
@@ -12221,7 +11926,7 @@
           <xdr:cNvPr id="22" name="文本框 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12287,7 +11992,7 @@
           <xdr:cNvPr id="23" name="图片 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12315,7 +12020,7 @@
           <xdr:cNvPr id="24" name="文本框 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12397,7 +12102,7 @@
         <xdr:cNvPr id="25" name="组合 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12405,8 +12110,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="726831" y="5514975"/>
-          <a:ext cx="5388271" cy="679206"/>
+          <a:off x="729698" y="5593660"/>
+          <a:ext cx="5414074" cy="682073"/>
           <a:chOff x="714375" y="9486900"/>
           <a:chExt cx="5447619" cy="676275"/>
         </a:xfrm>
@@ -12416,7 +12121,7 @@
           <xdr:cNvPr id="26" name="文本框 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12482,7 +12187,7 @@
           <xdr:cNvPr id="27" name="图片 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12510,7 +12215,7 @@
           <xdr:cNvPr id="28" name="文本框 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12592,7 +12297,7 @@
         <xdr:cNvPr id="29" name="组合 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12600,8 +12305,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="717306" y="6213231"/>
-          <a:ext cx="5388271" cy="676275"/>
+          <a:off x="720173" y="6294783"/>
+          <a:ext cx="5414074" cy="688699"/>
           <a:chOff x="714375" y="9486900"/>
           <a:chExt cx="5447619" cy="676275"/>
         </a:xfrm>
@@ -12611,7 +12316,7 @@
           <xdr:cNvPr id="30" name="文本框 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12677,7 +12382,7 @@
           <xdr:cNvPr id="31" name="图片 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12721,7 +12426,7 @@
         <xdr:cNvPr id="32" name="组合 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12729,8 +12434,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="717306" y="4095750"/>
-          <a:ext cx="5388271" cy="676275"/>
+          <a:off x="720173" y="4153728"/>
+          <a:ext cx="5414074" cy="684558"/>
           <a:chOff x="714375" y="9486900"/>
           <a:chExt cx="5447619" cy="676275"/>
         </a:xfrm>
@@ -12740,7 +12445,7 @@
           <xdr:cNvPr id="33" name="文本框 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12806,7 +12511,7 @@
           <xdr:cNvPr id="34" name="图片 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12834,7 +12539,7 @@
           <xdr:cNvPr id="35" name="文本框 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12916,7 +12621,7 @@
         <xdr:cNvPr id="36" name="文本框 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12997,7 +12702,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13040,7 +12745,7 @@
         <xdr:cNvPr id="38" name="矩形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13106,7 +12811,7 @@
         <xdr:cNvPr id="39" name="文本框 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13182,7 +12887,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13225,7 +12930,7 @@
         <xdr:cNvPr id="41" name="文本框 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13306,7 +13011,7 @@
         <xdr:cNvPr id="42" name="圆角矩形 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13370,7 +13075,7 @@
         <xdr:cNvPr id="43" name="矩形 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13436,7 +13141,7 @@
         <xdr:cNvPr id="44" name="文本框 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13523,7 +13228,7 @@
         <xdr:cNvPr id="45" name="图片 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13566,7 +13271,7 @@
         <xdr:cNvPr id="46" name="文本框 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13647,7 +13352,7 @@
         <xdr:cNvPr id="56" name="文本框 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13729,7 +13434,7 @@
         <xdr:cNvPr id="67" name="直接连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13779,7 +13484,7 @@
         <xdr:cNvPr id="68" name="文本框 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13848,7 +13553,7 @@
         <xdr:cNvPr id="69" name="图片 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13903,7 +13608,7 @@
         <xdr:cNvPr id="70" name="文本框 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13997,7 +13702,7 @@
         <xdr:cNvPr id="71" name="文本框 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14079,7 +13784,7 @@
         <xdr:cNvPr id="72" name="文本框 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14153,7 +13858,7 @@
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>57980</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14161,7 +13866,7 @@
         <xdr:cNvPr id="73" name="矩形 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14232,7 +13937,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14285,7 +13990,7 @@
         <xdr:cNvPr id="74" name="文本框 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14372,7 +14077,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14411,21 +14116,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>106434</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>24434</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>21982</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="75" name="文本框 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14433,8 +14138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="15497175"/>
-          <a:ext cx="1725684" cy="1119809"/>
+          <a:off x="972283" y="16071607"/>
+          <a:ext cx="1705901" cy="260106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14493,13 +14198,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14507,7 +14212,7 @@
         <xdr:cNvPr id="76" name="文本框 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14557,7 +14262,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Oppo A5S</a:t>
+            <a:t>A5S</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -14573,13 +14278,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>53486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>140138</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>68395</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14587,7 +14292,7 @@
         <xdr:cNvPr id="77" name="文本框 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14655,13 +14360,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>43229</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>34436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>24179</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>43961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14669,7 +14374,7 @@
         <xdr:cNvPr id="78" name="文本框 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14735,13 +14440,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>33704</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>91586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>159188</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>106495</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14749,7 +14454,7 @@
         <xdr:cNvPr id="79" name="文本框 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14816,13 +14521,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>43229</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>91586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>24179</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>101111</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14830,7 +14535,7 @@
         <xdr:cNvPr id="80" name="文本框 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14896,13 +14601,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14910,7 +14615,7 @@
         <xdr:cNvPr id="81" name="直接连接符 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14965,7 +14670,7 @@
         <xdr:cNvPr id="82" name="文本框 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15046,7 +14751,7 @@
         <xdr:cNvPr id="83" name="文本框 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15118,7 +14823,7 @@
         <xdr:cNvPr id="84" name="文本框 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15188,7 +14893,7 @@
         <xdr:cNvPr id="85" name="文本框 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15253,7 +14958,7 @@
         <xdr:cNvPr id="86" name="文本框 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15301,7 +15006,18 @@
               <a:ea typeface="Ebrima" panose="02000000000000000000" pitchFamily="2" charset="0"/>
               <a:cs typeface="Ebrima" panose="02000000000000000000" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>Min 1 Picture, Max 9 Pictures</a:t>
+            <a:t>Max 4 pictures could</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Ebrima" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Ebrima" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Ebrima" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> upload.</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0">
             <a:solidFill>
@@ -15334,7 +15050,7 @@
         <xdr:cNvPr id="87" name="文本框 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15415,7 +15131,7 @@
         <xdr:cNvPr id="88" name="文本框 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15482,13 +15198,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15496,7 +15212,7 @@
         <xdr:cNvPr id="89" name="文本框 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15563,13 +15279,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>186104</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>72536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>62279</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>5861</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15577,7 +15293,7 @@
         <xdr:cNvPr id="90" name="文本框 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15644,13 +15360,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>195629</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>110636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>71804</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>43961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15658,7 +15374,7 @@
         <xdr:cNvPr id="91" name="文本框 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15725,13 +15441,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>144534</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>243509</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15739,7 +15455,7 @@
         <xdr:cNvPr id="93" name="文本框 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15806,13 +15522,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15820,7 +15536,7 @@
         <xdr:cNvPr id="3" name="矩形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15870,13 +15586,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>138734</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15884,7 +15600,7 @@
         <xdr:cNvPr id="94" name="文本框 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15949,13 +15665,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153865</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>134815</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>119429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15963,7 +15679,7 @@
         <xdr:cNvPr id="115" name="文本框 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7459095-7A27-4BB6-9E47-2683DE8E2813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7459095-7A27-4BB6-9E47-2683DE8E2813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16047,13 +15763,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>197093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>48358</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>212002</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16061,7 +15777,7 @@
         <xdr:cNvPr id="116" name="文本框 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02077E3-5134-4B87-9BB0-03EE371C0B91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C02077E3-5134-4B87-9BB0-03EE371C0B91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16126,13 +15842,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>154598</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>135548</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>192697</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16140,7 +15856,7 @@
         <xdr:cNvPr id="117" name="文本框 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07832FA-1D88-4E63-AC7F-FC60806BB637}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C07832FA-1D88-4E63-AC7F-FC60806BB637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16219,13 +15935,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>13921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>48358</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>28830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16233,7 +15949,7 @@
         <xdr:cNvPr id="118" name="文本框 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17C54AB-7995-4D09-9189-873EDF81D732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C17C54AB-7995-4D09-9189-873EDF81D732}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16298,13 +16014,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>154598</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>135548</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16312,7 +16028,7 @@
         <xdr:cNvPr id="119" name="文本框 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDC2410-C89D-4610-AC36-167550688F43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCDC2410-C89D-4610-AC36-167550688F43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16379,13 +16095,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>21979</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>109169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>41029</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>124078</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16393,7 +16109,7 @@
         <xdr:cNvPr id="120" name="文本框 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA22D101-4FCA-4B61-9DC0-B93771D5F7B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA22D101-4FCA-4B61-9DC0-B93771D5F7B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16458,13 +16174,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>147269</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>128219</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>104773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16472,7 +16188,7 @@
         <xdr:cNvPr id="121" name="文本框 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E9CC69-A53A-420B-860D-47D267637F1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7E9CC69-A53A-420B-860D-47D267637F1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16527,13 +16243,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>204421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>33704</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>219330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16541,7 +16257,7 @@
         <xdr:cNvPr id="122" name="文本框 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B429102B-029A-4144-A195-5612DB98B7A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B429102B-029A-4144-A195-5612DB98B7A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16606,13 +16322,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139944</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>120894</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16620,7 +16336,7 @@
         <xdr:cNvPr id="123" name="文本框 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9427476D-39BD-493A-A9B6-5C04D152DFC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9427476D-39BD-493A-A9B6-5C04D152DFC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16675,13 +16391,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>87924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>106239</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>116754</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16689,7 +16405,7 @@
         <xdr:cNvPr id="2" name="组合 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0037FD49-1B02-4400-BAB2-C970B93FE25F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0037FD49-1B02-4400-BAB2-C970B93FE25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16697,8 +16413,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4945673" y="17826405"/>
-          <a:ext cx="3469297" cy="314580"/>
+          <a:off x="4969565" y="19527207"/>
+          <a:ext cx="3485544" cy="318721"/>
           <a:chOff x="4945673" y="18969405"/>
           <a:chExt cx="3469297" cy="314580"/>
         </a:xfrm>
@@ -16708,7 +16424,7 @@
           <xdr:cNvPr id="124" name="文本框 123">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B746C353-0182-47AC-8A1C-10326A11504D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B746C353-0182-47AC-8A1C-10326A11504D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16772,7 +16488,7 @@
           <xdr:cNvPr id="125" name="文本框 124">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBD18E2-505B-4819-95E4-D34C25BA4559}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FBD18E2-505B-4819-95E4-D34C25BA4559}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16828,13 +16544,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>175845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>106239</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>204675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16842,7 +16558,7 @@
         <xdr:cNvPr id="126" name="组合 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0330D93B-5C48-4F59-BC5B-93700EB50AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0330D93B-5C48-4F59-BC5B-93700EB50AF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16850,8 +16566,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4945673" y="18200076"/>
-          <a:ext cx="3469297" cy="314580"/>
+          <a:off x="4969565" y="19905019"/>
+          <a:ext cx="3485544" cy="318721"/>
           <a:chOff x="4945673" y="18969405"/>
           <a:chExt cx="3469297" cy="314580"/>
         </a:xfrm>
@@ -16861,7 +16577,7 @@
           <xdr:cNvPr id="127" name="文本框 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AAF79E-8D7B-4E59-B159-E6840D918D67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8AAF79E-8D7B-4E59-B159-E6840D918D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16925,7 +16641,7 @@
           <xdr:cNvPr id="128" name="文本框 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3424CF-658D-4A5F-AC7A-09C0D75CD93B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F3424CF-658D-4A5F-AC7A-09C0D75CD93B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16981,13 +16697,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>278423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>106241</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>21503</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16995,7 +16711,7 @@
         <xdr:cNvPr id="129" name="组合 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C983724D-FED7-4ABC-879A-AEBF0B459442}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C983724D-FED7-4ABC-879A-AEBF0B459442}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17003,8 +16719,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4945675" y="18588404"/>
-          <a:ext cx="3469297" cy="314580"/>
+          <a:off x="4969567" y="20297488"/>
+          <a:ext cx="3485544" cy="322863"/>
           <a:chOff x="4945673" y="18969405"/>
           <a:chExt cx="3469297" cy="314580"/>
         </a:xfrm>
@@ -17014,7 +16730,7 @@
           <xdr:cNvPr id="130" name="文本框 129">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97D0CDD-977B-4573-8B66-36AD126C70AA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F97D0CDD-977B-4573-8B66-36AD126C70AA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17078,7 +16794,7 @@
           <xdr:cNvPr id="131" name="文本框 130">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2B16F6-4298-4B73-B235-790E3ED77418}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F2B16F6-4298-4B73-B235-790E3ED77418}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17134,13 +16850,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>106241</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>116754</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -17148,7 +16864,7 @@
         <xdr:cNvPr id="132" name="组合 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B322542-34F2-4BC1-81AE-584E22DB1B18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B322542-34F2-4BC1-81AE-584E22DB1B18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17156,8 +16872,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4945675" y="18947424"/>
-          <a:ext cx="3469297" cy="336561"/>
+          <a:off x="4969567" y="20664791"/>
+          <a:ext cx="3485544" cy="340702"/>
           <a:chOff x="4945673" y="19042675"/>
           <a:chExt cx="3469297" cy="336561"/>
         </a:xfrm>
@@ -17167,7 +16883,7 @@
           <xdr:cNvPr id="133" name="文本框 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3523FC-CECC-4347-ADDC-16D034940E39}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA3523FC-CECC-4347-ADDC-16D034940E39}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17231,7 +16947,7 @@
           <xdr:cNvPr id="134" name="文本框 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F22D9B6-28E1-47EA-9614-725A6A21A5BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F22D9B6-28E1-47EA-9614-725A6A21A5BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17287,13 +17003,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>161194</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>183175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>106241</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>212005</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -17301,7 +17017,7 @@
         <xdr:cNvPr id="135" name="组合 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3E6F66-9DE6-4882-B4D2-AED6C1D9A0E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA3E6F66-9DE6-4882-B4D2-AED6C1D9A0E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17309,8 +17025,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4909040" y="19350406"/>
-          <a:ext cx="3505932" cy="314580"/>
+          <a:off x="4931977" y="21071914"/>
+          <a:ext cx="3523134" cy="318721"/>
           <a:chOff x="4909038" y="18969405"/>
           <a:chExt cx="3505932" cy="314580"/>
         </a:xfrm>
@@ -17320,7 +17036,7 @@
           <xdr:cNvPr id="136" name="文本框 135">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF55FB49-A99B-41F4-9C84-5C9C8903F126}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF55FB49-A99B-41F4-9C84-5C9C8903F126}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17384,7 +17100,7 @@
           <xdr:cNvPr id="137" name="文本框 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEA7F19-9DD0-46A0-A9F8-3793DBE5758D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBEA7F19-9DD0-46A0-A9F8-3793DBE5758D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17440,13 +17156,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>57979</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17454,7 +17170,7 @@
         <xdr:cNvPr id="139" name="直接连接符 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951FB10C-E243-4085-A5EF-50DA0B352070}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{951FB10C-E243-4085-A5EF-50DA0B352070}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17490,13 +17206,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17504,7 +17220,7 @@
         <xdr:cNvPr id="140" name="文本框 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30841A0-B3BC-4407-AFE4-16817D0394FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F30841A0-B3BC-4407-AFE4-16817D0394FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17574,13 +17290,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>14511</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>199523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>127154</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>218243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17588,7 +17304,7 @@
         <xdr:cNvPr id="141" name="图片 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EAE8E6-A123-4138-99F9-BBFB5F095B43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95EAE8E6-A123-4138-99F9-BBFB5F095B43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17629,13 +17345,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>40424</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>209424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>49949</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>228474</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17643,7 +17359,7 @@
         <xdr:cNvPr id="142" name="文本框 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A11743-C175-4064-A822-CCF1B07DCAEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99A11743-C175-4064-A822-CCF1B07DCAEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17708,13 +17424,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>10197</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>19722</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17722,7 +17438,7 @@
         <xdr:cNvPr id="143" name="文本框 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DE8646-5796-4A00-8E40-88A25B356350}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2DE8646-5796-4A00-8E40-88A25B356350}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17790,13 +17506,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>125482</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>217832</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17804,7 +17520,7 @@
         <xdr:cNvPr id="144" name="文本框 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2273A2A4-4AC5-4F36-BDEC-A5E50D28A425}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2273A2A4-4AC5-4F36-BDEC-A5E50D28A425}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17872,13 +17588,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107675</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>82825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>57980</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>265042</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17886,7 +17602,7 @@
         <xdr:cNvPr id="145" name="矩形 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B79234-17DF-45E0-8260-6CCE69049921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56B79234-17DF-45E0-8260-6CCE69049921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17938,13 +17654,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>41414</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>140808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>182218</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>157375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17952,7 +17668,7 @@
         <xdr:cNvPr id="146" name="矩形 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6542E3C1-2B18-4643-9CCB-4B78EF82EC51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6542E3C1-2B18-4643-9CCB-4B78EF82EC51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18010,13 +17726,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165651</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>165657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>175176</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>184708</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18024,7 +17740,7 @@
         <xdr:cNvPr id="147" name="文本框 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EB2119-954E-443D-BBD9-1E649446175D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15EB2119-954E-443D-BBD9-1E649446175D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18090,13 +17806,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>140806</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>149092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>150332</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>168143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18104,7 +17820,7 @@
         <xdr:cNvPr id="148" name="文本框 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961B2F0E-A5B4-4C64-BC9A-48B85FEB5ADA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{961B2F0E-A5B4-4C64-BC9A-48B85FEB5ADA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18170,13 +17886,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>16564</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>24851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>24845</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>49698</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18184,7 +17900,7 @@
         <xdr:cNvPr id="149" name="文本框 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C4770B-A670-4FD1-8F13-00AE8C0283AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C4770B-A670-4FD1-8F13-00AE8C0283AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18245,13 +17961,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>99390</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>41417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>231918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18259,7 +17975,7 @@
         <xdr:cNvPr id="150" name="文本框 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DB0BB2-D056-4574-830E-D22D0FB5DA2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0DB0BB2-D056-4574-830E-D22D0FB5DA2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18322,13 +18038,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>124237</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>16568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>207069</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18336,7 +18052,7 @@
         <xdr:cNvPr id="151" name="文本框 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F4E848-2EB8-4A63-B816-F8C1296DCB1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47F4E848-2EB8-4A63-B816-F8C1296DCB1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18388,13 +18104,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>182219</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>157373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>176424</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18402,7 +18118,7 @@
         <xdr:cNvPr id="152" name="文本框 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5168D1-0509-4717-B4F6-D23EF044203E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A5168D1-0509-4717-B4F6-D23EF044203E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18468,13 +18184,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>34091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>121690</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>241151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18482,7 +18198,7 @@
         <xdr:cNvPr id="153" name="文本框 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412E5F01-1986-4866-A072-275CB34705AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{412E5F01-1986-4866-A072-275CB34705AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18533,13 +18249,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>182221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>182221</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18547,7 +18263,7 @@
         <xdr:cNvPr id="154" name="直接连接符 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD3577F-18D7-4708-BD96-D747751B71F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DD3577F-18D7-4708-BD96-D747751B71F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18583,13 +18299,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>182218</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18597,7 +18313,7 @@
         <xdr:cNvPr id="155" name="文本框 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECFDB5B-370F-4CD0-BD4B-0AB5BF009C2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ECFDB5B-370F-4CD0-BD4B-0AB5BF009C2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18661,13 +18377,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>16561</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>33129</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18675,7 +18391,7 @@
         <xdr:cNvPr id="158" name="文本框 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F03D97-A1FC-40A0-AB8A-B766A4E824A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7F03D97-A1FC-40A0-AB8A-B766A4E824A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18736,13 +18452,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>91106</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>24849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>41411</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>215349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18750,7 +18466,7 @@
         <xdr:cNvPr id="159" name="文本框 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A21B43-8B76-484C-B438-54A23F449C6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0A21B43-8B76-484C-B438-54A23F449C6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18809,13 +18525,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>115953</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18823,7 +18539,7 @@
         <xdr:cNvPr id="160" name="文本框 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B26C32-AFCF-4E4A-B6CE-69D26CD91BB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42B26C32-AFCF-4E4A-B6CE-69D26CD91BB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18875,13 +18591,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18889,7 +18605,7 @@
         <xdr:cNvPr id="162" name="直接连接符 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016DACB3-15CE-4C8F-9464-5C7B95658945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{016DACB3-15CE-4C8F-9464-5C7B95658945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18925,13 +18641,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>33128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>173934</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>273323</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18939,7 +18655,7 @@
         <xdr:cNvPr id="163" name="文本框 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC8EFE3-A710-4028-BFDA-FC59BD99755C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDC8EFE3-A710-4028-BFDA-FC59BD99755C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19009,13 +18725,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>7326</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>43961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>129016</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>251021</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19023,7 +18739,7 @@
         <xdr:cNvPr id="171" name="文本框 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA68461-035E-42D8-9ED0-567F11A4B64A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEA68461-035E-42D8-9ED0-567F11A4B64A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19074,13 +18790,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>22715</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>159726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>87923</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>168519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19088,7 +18804,7 @@
         <xdr:cNvPr id="172" name="文本框 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACABD9B-BD62-49DE-BD0E-7DE976A75C30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ACABD9B-BD62-49DE-BD0E-7DE976A75C30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19139,13 +18855,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>14511</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>199523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>127154</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>218243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19153,7 +18869,7 @@
         <xdr:cNvPr id="175" name="图片 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D88C679-6A13-4712-BC57-D4115F40294C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D88C679-6A13-4712-BC57-D4115F40294C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19194,13 +18910,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>10197</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>19722</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19208,7 +18924,7 @@
         <xdr:cNvPr id="177" name="文本框 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033D9A7B-3502-4411-A4E4-A381BDE0999C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{033D9A7B-3502-4411-A4E4-A381BDE0999C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19276,13 +18992,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107675</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>82825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>57980</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>265042</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19290,7 +19006,7 @@
         <xdr:cNvPr id="179" name="矩形 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CF9DA7-F87B-42AF-A750-244A8B2FCBBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75CF9DA7-F87B-42AF-A750-244A8B2FCBBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19342,13 +19058,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>124557</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>106241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>58711</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>106241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19356,7 +19072,7 @@
         <xdr:cNvPr id="196" name="直接连接符 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A16ED2-260D-4FE9-9A38-091421F34BDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8A16ED2-260D-4FE9-9A38-091421F34BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19392,13 +19108,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>162657</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>10257</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>104043</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19406,7 +19122,7 @@
         <xdr:cNvPr id="197" name="文本框 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAF8731-4F00-4A63-986A-7D6F25256A8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCAF8731-4F00-4A63-986A-7D6F25256A8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19476,13 +19192,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>41156</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>77540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>50681</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>96590</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19490,7 +19206,7 @@
         <xdr:cNvPr id="198" name="文本框 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4E97AC-C922-4023-9D26-6E93B5423D07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED4E97AC-C922-4023-9D26-6E93B5423D07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19560,13 +19276,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>116689</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>66898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>126214</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>85948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19574,7 +19290,7 @@
         <xdr:cNvPr id="199" name="文本框 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE50EB3D-1677-45A8-8D04-43AF41810DC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE50EB3D-1677-45A8-8D04-43AF41810DC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19639,13 +19355,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>80598</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>36636</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19653,7 +19369,7 @@
         <xdr:cNvPr id="200" name="文本框 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F17DD6-76E6-4683-89D2-2256E5BDE8A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30F17DD6-76E6-4683-89D2-2256E5BDE8A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19714,13 +19430,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>139215</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>109908</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>14909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19728,7 +19444,7 @@
         <xdr:cNvPr id="201" name="文本框 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1821B7-F5D4-413C-97AC-4E696D40DF9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D1821B7-F5D4-413C-97AC-4E696D40DF9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19793,13 +19509,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>102575</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>58613</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19807,7 +19523,7 @@
         <xdr:cNvPr id="202" name="文本框 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967C1866-C3FE-41DE-B1B3-3C574A4848F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967C1866-C3FE-41DE-B1B3-3C574A4848F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19868,13 +19584,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>139212</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>168519</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>29563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19882,7 +19598,7 @@
         <xdr:cNvPr id="203" name="文本框 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C14BE87-0227-47C3-B4E1-CC5245CE7875}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C14BE87-0227-47C3-B4E1-CC5245CE7875}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19947,13 +19663,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>124018</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>272051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>5351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19961,7 +19677,7 @@
         <xdr:cNvPr id="204" name="文本框 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB0826A-AB80-485A-A350-FB205F35BB31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBB0826A-AB80-485A-A350-FB205F35BB31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20026,13 +19742,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>87924</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>278425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>43963</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>2200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20040,7 +19756,7 @@
         <xdr:cNvPr id="205" name="文本框 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC04CA3-F1A0-48DE-99D4-7CD1D53626E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC04CA3-F1A0-48DE-99D4-7CD1D53626E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20095,13 +19811,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>73271</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>278424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>43964</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>7583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20109,7 +19825,7 @@
         <xdr:cNvPr id="206" name="文本框 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510832D5-DC3D-49F7-A116-54E2DD550E7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{510832D5-DC3D-49F7-A116-54E2DD550E7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20174,13 +19890,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>188685</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>12587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>131662</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>29154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20188,7 +19904,7 @@
         <xdr:cNvPr id="208" name="矩形 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C5896B-FC0D-4673-9141-DA124B89DF3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4C5896B-FC0D-4673-9141-DA124B89DF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20246,13 +19962,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>115095</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>37436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124620</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>56487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20260,7 +19976,7 @@
         <xdr:cNvPr id="209" name="文本框 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DC8F87-F0F6-481C-A18D-A873B57CB294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40DC8F87-F0F6-481C-A18D-A873B57CB294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20326,13 +20042,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>90250</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>20871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>99776</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>39922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20340,7 +20056,7 @@
         <xdr:cNvPr id="210" name="文本框 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3794EDB-BBD9-4C28-8F1E-84E44AEF78CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3794EDB-BBD9-4C28-8F1E-84E44AEF78CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20406,13 +20122,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>92795</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>111024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>43100</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>15775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20420,7 +20136,7 @@
         <xdr:cNvPr id="212" name="文本框 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEB1DC5-EAC7-48F7-8202-EDB641DE781C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BEB1DC5-EAC7-48F7-8202-EDB641DE781C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20476,13 +20192,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>73681</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>108154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>57118</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>12905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20490,7 +20206,7 @@
         <xdr:cNvPr id="213" name="文本框 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AAD619-D498-41F4-8C02-4157EC77DE42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00AAD619-D498-41F4-8C02-4157EC77DE42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20542,13 +20258,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>131663</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>29152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>15386</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>48203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20556,7 +20272,7 @@
         <xdr:cNvPr id="214" name="文本框 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF881695-267C-4C3F-A0E9-1C22F2F55635}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF881695-267C-4C3F-A0E9-1C22F2F55635}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20621,13 +20337,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>155555</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>185883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>147273</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>185883</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20635,7 +20351,7 @@
         <xdr:cNvPr id="216" name="直接连接符 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBD76EA-76F6-43DE-9D68-E16D55F21A8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBBD76EA-76F6-43DE-9D68-E16D55F21A8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20671,13 +20387,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>163837</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>141282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>131662</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>91586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20685,7 +20401,7 @@
         <xdr:cNvPr id="217" name="文本框 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40B4F1A-6C07-4792-8594-75824B2DE58C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A40B4F1A-6C07-4792-8594-75824B2DE58C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20747,13 +20463,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>135800</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>21184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86105</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>43960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20761,7 +20477,7 @@
         <xdr:cNvPr id="219" name="文本框 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D2B6A8-A3DA-46B6-A9F4-866E9E37B964}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55D2B6A8-A3DA-46B6-A9F4-866E9E37B964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20813,13 +20529,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>65397</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>3662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180401</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>194162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20827,7 +20543,7 @@
         <xdr:cNvPr id="220" name="文本框 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA04883B-E92E-4A03-94FB-E9ECBF7CDBE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA04883B-E92E-4A03-94FB-E9ECBF7CDBE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20879,13 +20595,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>147271</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>110692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>139944</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>110692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20893,7 +20609,7 @@
         <xdr:cNvPr id="221" name="直接连接符 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6648065B-0E9F-4EF6-8388-83137F2E5C12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6648065B-0E9F-4EF6-8388-83137F2E5C12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20929,13 +20645,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>155553</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>36790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>123378</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>276985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20943,7 +20659,7 @@
         <xdr:cNvPr id="222" name="文本框 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD901FB-BB9B-4861-9120-98C2B8CBB94A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CD901FB-BB9B-4861-9120-98C2B8CBB94A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21011,13 +20727,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>197604</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>21825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>81328</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>40876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21025,7 +20741,7 @@
         <xdr:cNvPr id="224" name="文本框 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDB0975-3DF5-425A-A7DD-A28B060469F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6FDB0975-3DF5-425A-A7DD-A28B060469F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21083,13 +20799,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>68585</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>133955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>84259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21097,7 +20813,7 @@
         <xdr:cNvPr id="225" name="文本框 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19827772-BE47-4EC6-9151-D80FB35A5B32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19827772-BE47-4EC6-9151-D80FB35A5B32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21163,13 +20879,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>178488</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>31378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>267432</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21177,7 +20893,7 @@
         <xdr:cNvPr id="226" name="文本框 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BDC84B-758D-47D1-8EEB-AA0BA0CCDFE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9BDC84B-758D-47D1-8EEB-AA0BA0CCDFE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21243,13 +20959,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>131343</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>272052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>5352</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21257,7 +20973,7 @@
         <xdr:cNvPr id="227" name="文本框 226">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795801A9-2526-4E8B-8B56-3D00467716F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795801A9-2526-4E8B-8B56-3D00467716F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21322,13 +21038,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>51288</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>51288</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>79004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21336,7 +21052,7 @@
         <xdr:cNvPr id="228" name="线形标注 2 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F7E728-6AD3-45BB-8EB5-638A1E626FB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71F7E728-6AD3-45BB-8EB5-638A1E626FB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21391,11 +21107,552 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123286</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>10991</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="文本框 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="989135" y="15489116"/>
+          <a:ext cx="1705901" cy="260106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Manufacturer</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>169252</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>65209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45427</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>284284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="文本框 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1751867" y="15517690"/>
+          <a:ext cx="271829" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Drop Down 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41987</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>174412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167471</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>189322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="文本框 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1035900" y="18164238"/>
+          <a:ext cx="1715745" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Tax</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34946</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>174413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>183937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="文本框 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028859" y="18454130"/>
+          <a:ext cx="3211837" cy="299416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>162499</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>210027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38674</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>143353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="文本框 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1355195" y="18199853"/>
+          <a:ext cx="273740" cy="223217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91683</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>182694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>18385</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>197603</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="文本框 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4266118" y="18462411"/>
+          <a:ext cx="1715745" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -21470,23 +21727,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -21522,23 +21762,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -21714,10 +21937,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BB68" sqref="BB68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21842,11 +22067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BR101"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BB104" sqref="BB104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC63" sqref="AC63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -21872,7 +22097,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="53:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="52:70" x14ac:dyDescent="0.25">
+      <c r="BA51" s="7"/>
+      <c r="BB51" s="7"/>
+      <c r="BC51" s="7"/>
+      <c r="BD51" s="7"/>
+      <c r="BE51" s="7"/>
+      <c r="BF51" s="7"/>
+      <c r="BG51" s="7"/>
+      <c r="BH51" s="7"/>
+      <c r="BI51" s="7"/>
+      <c r="BJ51" s="7"/>
+      <c r="BK51" s="7"/>
+    </row>
+    <row r="52" spans="52:70" x14ac:dyDescent="0.25">
       <c r="BA52" s="4"/>
       <c r="BB52" s="4" t="s">
         <v>8</v>
@@ -21887,8 +22125,18 @@
       </c>
       <c r="BI52" s="4"/>
       <c r="BJ52" s="4"/>
+      <c r="BK52" s="4"/>
+      <c r="BL52" s="4"/>
+      <c r="BM52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN52" s="4"/>
+      <c r="BO52" s="4"/>
+      <c r="BP52" s="4"/>
+      <c r="BQ52" s="4"/>
+      <c r="BR52" s="4"/>
     </row>
-    <row r="53" spans="53:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="52:70" x14ac:dyDescent="0.25">
       <c r="BA53" s="4"/>
       <c r="BB53" s="4" t="s">
         <v>9</v>
@@ -21903,8 +22151,18 @@
       </c>
       <c r="BI53" s="4"/>
       <c r="BJ53" s="4"/>
+      <c r="BK53" s="4"/>
+      <c r="BL53" s="4"/>
+      <c r="BM53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN53" s="4"/>
+      <c r="BO53" s="4"/>
+      <c r="BP53" s="4"/>
+      <c r="BQ53" s="4"/>
+      <c r="BR53" s="4"/>
     </row>
-    <row r="54" spans="53:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="52:70" x14ac:dyDescent="0.25">
       <c r="BA54" s="4"/>
       <c r="BB54" s="4" t="s">
         <v>10</v>
@@ -21919,8 +22177,16 @@
       </c>
       <c r="BI54" s="4"/>
       <c r="BJ54" s="4"/>
+      <c r="BK54" s="4"/>
+      <c r="BL54" s="4"/>
+      <c r="BM54" s="4"/>
+      <c r="BN54" s="4"/>
+      <c r="BO54" s="4"/>
+      <c r="BP54" s="4"/>
+      <c r="BQ54" s="4"/>
+      <c r="BR54" s="4"/>
     </row>
-    <row r="55" spans="53:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="52:70" x14ac:dyDescent="0.25">
       <c r="BA55" s="4"/>
       <c r="BB55" s="4"/>
       <c r="BC55" s="4"/>
@@ -21931,8 +22197,17 @@
       <c r="BH55" s="4"/>
       <c r="BI55" s="4"/>
       <c r="BJ55" s="4"/>
+      <c r="BK55" s="4"/>
+      <c r="BL55" s="4"/>
+      <c r="BM55" s="4"/>
+      <c r="BN55" s="4"/>
+      <c r="BO55" s="4"/>
+      <c r="BP55" s="4"/>
+      <c r="BQ55" s="4"/>
+      <c r="BR55" s="4"/>
     </row>
-    <row r="56" spans="53:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="52:70" x14ac:dyDescent="0.25">
+      <c r="AZ56" s="6"/>
       <c r="BA56" s="4"/>
       <c r="BB56" s="4"/>
       <c r="BC56" s="4"/>
@@ -21943,32 +22218,42 @@
       <c r="BH56" s="4"/>
       <c r="BI56" s="4"/>
       <c r="BJ56" s="4"/>
+      <c r="BK56" s="4"/>
+      <c r="BL56" s="4"/>
+      <c r="BM56" s="4"/>
+      <c r="BN56" s="4"/>
+      <c r="BO56" s="4"/>
+      <c r="BP56" s="4"/>
+      <c r="BQ56" s="4"/>
+      <c r="BR56" s="4"/>
     </row>
-    <row r="57" spans="53:62" x14ac:dyDescent="0.25">
-      <c r="BA57" s="4"/>
-      <c r="BB57" s="4"/>
-      <c r="BC57" s="4"/>
-      <c r="BD57" s="4"/>
-      <c r="BE57" s="4"/>
-      <c r="BF57" s="4"/>
-      <c r="BG57" s="4"/>
-      <c r="BH57" s="4"/>
-      <c r="BI57" s="4"/>
-      <c r="BJ57" s="4"/>
+    <row r="57" spans="52:70" x14ac:dyDescent="0.25">
+      <c r="BA57" s="7"/>
+      <c r="BB57" s="7"/>
+      <c r="BC57" s="7"/>
+      <c r="BD57" s="7"/>
+      <c r="BE57" s="7"/>
+      <c r="BF57" s="7"/>
+      <c r="BG57" s="7"/>
+      <c r="BH57" s="7"/>
+      <c r="BI57" s="7"/>
+      <c r="BJ57" s="7"/>
+      <c r="BK57" s="7"/>
     </row>
-    <row r="58" spans="53:62" x14ac:dyDescent="0.25">
-      <c r="BA58" s="4"/>
-      <c r="BB58" s="4"/>
-      <c r="BC58" s="4"/>
-      <c r="BD58" s="4"/>
-      <c r="BE58" s="4"/>
-      <c r="BF58" s="4"/>
-      <c r="BG58" s="4"/>
-      <c r="BH58" s="4"/>
-      <c r="BI58" s="4"/>
-      <c r="BJ58" s="4"/>
+    <row r="58" spans="52:70" x14ac:dyDescent="0.25">
+      <c r="BA58" s="7"/>
+      <c r="BB58" s="7"/>
+      <c r="BC58" s="7"/>
+      <c r="BD58" s="7"/>
+      <c r="BE58" s="7"/>
+      <c r="BF58" s="7"/>
+      <c r="BG58" s="7"/>
+      <c r="BH58" s="7"/>
+      <c r="BI58" s="7"/>
+      <c r="BJ58" s="7"/>
+      <c r="BK58" s="7"/>
     </row>
-    <row r="59" spans="53:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="52:70" x14ac:dyDescent="0.25">
       <c r="BA59" s="4"/>
       <c r="BB59" s="4"/>
       <c r="BC59" s="4"/>
@@ -21980,13 +22265,37 @@
       <c r="BI59" s="4"/>
       <c r="BJ59" s="4"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="60" spans="52:70" x14ac:dyDescent="0.25">
+      <c r="BA60" s="4"/>
+      <c r="BB60" s="4"/>
+      <c r="BC60" s="4"/>
+      <c r="BD60" s="4"/>
+      <c r="BE60" s="4"/>
+      <c r="BF60" s="4"/>
+      <c r="BG60" s="4"/>
+      <c r="BH60" s="4"/>
+      <c r="BI60" s="4"/>
+      <c r="BJ60" s="4"/>
+    </row>
+    <row r="61" spans="52:70" x14ac:dyDescent="0.25">
+      <c r="BA61" s="4"/>
+      <c r="BB61" s="4"/>
+      <c r="BC61" s="4"/>
+      <c r="BD61" s="4"/>
+      <c r="BE61" s="4"/>
+      <c r="BF61" s="4"/>
+      <c r="BG61" s="4"/>
+      <c r="BH61" s="4"/>
+      <c r="BI61" s="4"/>
+      <c r="BJ61" s="4"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A96" s="5" t="s">
+    <row r="101" spans="1:1" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A101" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -22043,6 +22352,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId6" name="Drop Down 3">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/Milestone1/eMart Wireframe.xlsx
+++ b/Milestone1/eMart Wireframe.xlsx
@@ -257,7 +257,7 @@
         <xdr:cNvPr id="11" name="文本框 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -338,7 +338,7 @@
         <xdr:cNvPr id="9" name="文本框 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -419,7 +419,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -463,7 +463,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -506,7 +506,7 @@
         <xdr:cNvPr id="39" name="文本框 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="40" name="圆角矩形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -651,7 +651,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -695,7 +695,7 @@
         <xdr:cNvPr id="42" name="文本框 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -787,7 +787,7 @@
         <xdr:cNvPr id="51" name="矩形 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -853,7 +853,7 @@
         <xdr:cNvPr id="75" name="文本框 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,7 +929,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -972,7 +972,7 @@
         <xdr:cNvPr id="78" name="文本框 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1053,7 @@
         <xdr:cNvPr id="79" name="圆角矩形 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1117,7 @@
         <xdr:cNvPr id="82" name="矩形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,7 +1183,7 @@
         <xdr:cNvPr id="83" name="文本框 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,7 +1270,7 @@
         <xdr:cNvPr id="84" name="图片 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="85" name="文本框 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1394,7 @@
         <xdr:cNvPr id="88" name="组合 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000058000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1413,7 @@
           <xdr:cNvPr id="87" name="圆角矩形 86">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
           <xdr:cNvPr id="86" name="图片 85">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1506,7 +1506,7 @@
         <xdr:cNvPr id="3" name="直接连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1556,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1625,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1680,7 @@
         <xdr:cNvPr id="29" name="文本框 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1762,7 @@
         <xdr:cNvPr id="30" name="文本框 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1844,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
         <xdr:cNvPr id="36" name="文本框 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1996,7 @@
         <xdr:cNvPr id="43" name="文本框 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="44" name="文本框 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2156,7 @@
         <xdr:cNvPr id="12" name="文本框 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2231,7 @@
         <xdr:cNvPr id="45" name="文本框 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2308,7 @@
         <xdr:cNvPr id="46" name="文本框 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2374,7 @@
         <xdr:cNvPr id="47" name="文本框 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2454,7 @@
         <xdr:cNvPr id="48" name="文本框 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2520,7 @@
         <xdr:cNvPr id="49" name="文本框 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2586,7 @@
         <xdr:cNvPr id="50" name="文本框 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2651,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2701,7 @@
         <xdr:cNvPr id="53" name="文本框 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2776,7 @@
         <xdr:cNvPr id="54" name="文本框 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2849,7 @@
         <xdr:cNvPr id="55" name="文本框 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,7 +2915,7 @@
         <xdr:cNvPr id="56" name="文本框 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,7 +2981,7 @@
         <xdr:cNvPr id="57" name="文本框 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3047,7 @@
         <xdr:cNvPr id="58" name="文本框 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3112,7 +3112,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3162,7 @@
         <xdr:cNvPr id="63" name="矩形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3244,7 @@
         <xdr:cNvPr id="64" name="文本框 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3323,7 @@
         <xdr:cNvPr id="65" name="文本框 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3403,7 @@
         <xdr:cNvPr id="66" name="文本框 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,7 +3482,7 @@
         <xdr:cNvPr id="67" name="矩形 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3564,7 +3564,7 @@
         <xdr:cNvPr id="68" name="矩形 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3646,7 +3646,7 @@
         <xdr:cNvPr id="69" name="文本框 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,7 +3725,7 @@
         <xdr:cNvPr id="70" name="文本框 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,7 +3790,7 @@
         <xdr:cNvPr id="71" name="矩形 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3856,7 +3856,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3900,7 +3900,7 @@
         <xdr:cNvPr id="76" name="文本框 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3975,7 +3975,7 @@
         <xdr:cNvPr id="80" name="文本框 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4057,7 +4057,7 @@
         <xdr:cNvPr id="81" name="文本框 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +4139,7 @@
         <xdr:cNvPr id="89" name="文本框 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000059000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,7 +4221,7 @@
         <xdr:cNvPr id="90" name="文本框 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4302,7 @@
         <xdr:cNvPr id="17" name="右大括号 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4363,7 +4363,7 @@
         <xdr:cNvPr id="18" name="文本框 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4438,7 @@
         <xdr:cNvPr id="92" name="右大括号 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4499,7 +4499,7 @@
         <xdr:cNvPr id="93" name="文本框 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4574,7 +4574,7 @@
         <xdr:cNvPr id="94" name="文本框 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4656,7 +4656,7 @@
         <xdr:cNvPr id="95" name="文本框 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4738,7 +4738,7 @@
         <xdr:cNvPr id="96" name="文本框 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000060000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4820,7 +4820,7 @@
         <xdr:cNvPr id="97" name="文本框 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000061000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4914,7 +4914,7 @@
         <xdr:cNvPr id="99" name="文本框 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000063000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4996,7 +4996,7 @@
         <xdr:cNvPr id="100" name="文本框 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,7 +5061,7 @@
         <xdr:cNvPr id="101" name="文本框 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5131,7 +5131,7 @@
         <xdr:cNvPr id="102" name="图片 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000066000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5186,7 +5186,7 @@
         <xdr:cNvPr id="104" name="直接连接符 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5236,7 +5236,7 @@
         <xdr:cNvPr id="105" name="文本框 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000069000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5416,7 +5416,7 @@
         <xdr:cNvPr id="106" name="文本框 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5533,7 +5533,7 @@
         <xdr:cNvPr id="107" name="文本框 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5615,7 +5615,7 @@
         <xdr:cNvPr id="103" name="直接连接符 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000067000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5665,7 +5665,7 @@
         <xdr:cNvPr id="108" name="文本框 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5734,7 +5734,7 @@
         <xdr:cNvPr id="109" name="图片 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5789,7 +5789,7 @@
         <xdr:cNvPr id="110" name="文本框 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5871,7 +5871,7 @@
         <xdr:cNvPr id="111" name="文本框 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5953,7 +5953,7 @@
         <xdr:cNvPr id="113" name="矩形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000071000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6019,7 +6019,7 @@
         <xdr:cNvPr id="133" name="文本框 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000085000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6101,7 +6101,7 @@
         <xdr:cNvPr id="134" name="直接连接符 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000086000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6151,7 +6151,7 @@
         <xdr:cNvPr id="135" name="文本框 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000087000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6220,7 +6220,7 @@
         <xdr:cNvPr id="136" name="图片 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000088000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6275,7 +6275,7 @@
         <xdr:cNvPr id="137" name="文本框 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000089000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6357,7 +6357,7 @@
         <xdr:cNvPr id="138" name="文本框 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6439,7 +6439,7 @@
         <xdr:cNvPr id="140" name="矩形 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6505,7 +6505,7 @@
         <xdr:cNvPr id="141" name="矩形 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6577,7 +6577,7 @@
         <xdr:cNvPr id="142" name="文本框 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6657,7 +6657,7 @@
         <xdr:cNvPr id="143" name="文本框 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6737,7 +6737,7 @@
         <xdr:cNvPr id="145" name="文本框 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000091000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6812,7 +6812,7 @@
         <xdr:cNvPr id="146" name="文本框 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000092000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6889,7 +6889,7 @@
         <xdr:cNvPr id="147" name="文本框 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000093000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6955,7 +6955,7 @@
         <xdr:cNvPr id="148" name="文本框 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000094000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7035,7 +7035,7 @@
         <xdr:cNvPr id="151" name="文本框 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000097000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7100,7 +7100,7 @@
         <xdr:cNvPr id="152" name="直接连接符 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000098000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7150,7 +7150,7 @@
         <xdr:cNvPr id="153" name="文本框 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000099000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7230,7 +7230,7 @@
         <xdr:cNvPr id="154" name="文本框 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7310,7 +7310,7 @@
         <xdr:cNvPr id="155" name="文本框 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7376,7 +7376,7 @@
         <xdr:cNvPr id="156" name="文本框 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7451,7 +7451,7 @@
         <xdr:cNvPr id="157" name="文本框 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7524,7 +7524,7 @@
         <xdr:cNvPr id="158" name="文本框 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7590,7 +7590,7 @@
         <xdr:cNvPr id="159" name="文本框 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7655,7 +7655,7 @@
         <xdr:cNvPr id="160" name="直接连接符 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A0000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7705,7 +7705,7 @@
         <xdr:cNvPr id="161" name="文本框 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7785,7 +7785,7 @@
         <xdr:cNvPr id="162" name="文本框 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A2000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7856,7 +7856,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7923,7 +7923,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7990,7 +7990,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8052,7 +8052,7 @@
         <xdr:cNvPr id="163" name="文本框 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A3000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8133,7 +8133,7 @@
         <xdr:cNvPr id="164" name="文本框 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A4000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8214,7 +8214,7 @@
         <xdr:cNvPr id="165" name="文本框 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A5000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8295,7 +8295,7 @@
         <xdr:cNvPr id="166" name="文本框 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A6000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8376,7 +8376,7 @@
         <xdr:cNvPr id="167" name="文本框 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A7000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8446,7 +8446,7 @@
         <xdr:cNvPr id="168" name="文本框 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A8000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8511,7 +8511,7 @@
         <xdr:cNvPr id="6" name="线形标注 2 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8584,7 +8584,7 @@
         <xdr:cNvPr id="169" name="文本框 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A9000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8656,7 +8656,7 @@
         <xdr:cNvPr id="170" name="文本框 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AA000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8736,7 +8736,7 @@
         <xdr:cNvPr id="172" name="文本框 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AC000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8801,7 +8801,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8863,7 +8863,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8907,7 +8907,7 @@
         <xdr:cNvPr id="173" name="文本框 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AD000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8989,7 +8989,7 @@
         <xdr:cNvPr id="174" name="直接连接符 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AE000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9039,7 +9039,7 @@
         <xdr:cNvPr id="175" name="文本框 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AF000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9123,7 +9123,7 @@
         <xdr:cNvPr id="176" name="图片 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B0000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9178,7 +9178,7 @@
         <xdr:cNvPr id="177" name="文本框 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B1000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9257,7 +9257,7 @@
         <xdr:cNvPr id="178" name="文本框 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B2000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9339,7 +9339,7 @@
         <xdr:cNvPr id="180" name="矩形 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B4000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9405,7 +9405,7 @@
         <xdr:cNvPr id="181" name="矩形 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B5000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9477,7 +9477,7 @@
         <xdr:cNvPr id="182" name="文本框 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B6000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9557,7 +9557,7 @@
         <xdr:cNvPr id="183" name="文本框 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B7000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9637,7 +9637,7 @@
         <xdr:cNvPr id="184" name="文本框 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B8000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9712,7 +9712,7 @@
         <xdr:cNvPr id="185" name="文本框 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B9000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9789,7 +9789,7 @@
         <xdr:cNvPr id="186" name="文本框 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BA000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9855,7 +9855,7 @@
         <xdr:cNvPr id="187" name="文本框 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BB000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9935,7 +9935,7 @@
         <xdr:cNvPr id="188" name="文本框 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BC000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10000,7 +10000,7 @@
         <xdr:cNvPr id="189" name="直接连接符 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BD000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10050,7 +10050,7 @@
         <xdr:cNvPr id="190" name="文本框 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BE000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10126,7 +10126,7 @@
         <xdr:cNvPr id="191" name="文本框 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BF000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10206,7 +10206,7 @@
         <xdr:cNvPr id="192" name="文本框 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C0000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10272,7 +10272,7 @@
         <xdr:cNvPr id="193" name="文本框 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C1000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10347,7 +10347,7 @@
         <xdr:cNvPr id="194" name="文本框 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C2000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10420,7 +10420,7 @@
         <xdr:cNvPr id="195" name="文本框 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C3000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10486,7 +10486,7 @@
         <xdr:cNvPr id="196" name="文本框 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C4000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10551,7 +10551,7 @@
         <xdr:cNvPr id="197" name="直接连接符 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C5000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10601,7 +10601,7 @@
         <xdr:cNvPr id="198" name="文本框 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C6000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10683,7 +10683,7 @@
         <xdr:cNvPr id="199" name="文本框 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C7000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10749,7 +10749,7 @@
         <xdr:cNvPr id="212" name="文本框 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D4000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10829,7 +10829,7 @@
         <xdr:cNvPr id="213" name="文本框 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D5000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10899,7 +10899,7 @@
         <xdr:cNvPr id="214" name="文本框 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D6000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10969,7 +10969,7 @@
         <xdr:cNvPr id="215" name="线形标注 2 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D7000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11038,7 +11038,7 @@
         <xdr:cNvPr id="216" name="右大括号 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D8000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11099,7 +11099,7 @@
         <xdr:cNvPr id="217" name="文本框 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D9000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11174,7 +11174,7 @@
         <xdr:cNvPr id="218" name="右大括号 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DA000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11235,7 +11235,7 @@
         <xdr:cNvPr id="219" name="文本框 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DB000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11310,7 +11310,7 @@
         <xdr:cNvPr id="98" name="文本框 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000062000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11387,7 +11387,7 @@
         <xdr:cNvPr id="10" name="文本框 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11463,7 +11463,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11507,7 +11507,7 @@
         <xdr:cNvPr id="12" name="组合 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11526,7 +11526,7 @@
           <xdr:cNvPr id="13" name="文本框 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11592,7 +11592,7 @@
           <xdr:cNvPr id="14" name="图片 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11620,7 +11620,7 @@
           <xdr:cNvPr id="15" name="文本框 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11702,7 +11702,7 @@
         <xdr:cNvPr id="16" name="圆角矩形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11766,7 +11766,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11785,7 +11785,7 @@
           <xdr:cNvPr id="18" name="图片 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11814,7 +11814,7 @@
           <xdr:cNvPr id="19" name="文本框 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11907,7 +11907,7 @@
         <xdr:cNvPr id="21" name="组合 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11926,7 +11926,7 @@
           <xdr:cNvPr id="22" name="文本框 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11992,7 +11992,7 @@
           <xdr:cNvPr id="23" name="图片 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12020,7 +12020,7 @@
           <xdr:cNvPr id="24" name="文本框 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12102,7 +12102,7 @@
         <xdr:cNvPr id="25" name="组合 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12121,7 +12121,7 @@
           <xdr:cNvPr id="26" name="文本框 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12187,7 +12187,7 @@
           <xdr:cNvPr id="27" name="图片 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12215,7 +12215,7 @@
           <xdr:cNvPr id="28" name="文本框 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12297,7 +12297,7 @@
         <xdr:cNvPr id="29" name="组合 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12316,7 +12316,7 @@
           <xdr:cNvPr id="30" name="文本框 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12382,7 +12382,7 @@
           <xdr:cNvPr id="31" name="图片 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12426,7 +12426,7 @@
         <xdr:cNvPr id="32" name="组合 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12445,7 +12445,7 @@
           <xdr:cNvPr id="33" name="文本框 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12511,7 +12511,7 @@
           <xdr:cNvPr id="34" name="图片 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12539,7 +12539,7 @@
           <xdr:cNvPr id="35" name="文本框 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12621,7 +12621,7 @@
         <xdr:cNvPr id="36" name="文本框 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12702,7 +12702,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12745,7 +12745,7 @@
         <xdr:cNvPr id="38" name="矩形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12811,7 +12811,7 @@
         <xdr:cNvPr id="39" name="文本框 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12887,7 +12887,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12930,7 +12930,7 @@
         <xdr:cNvPr id="41" name="文本框 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13011,7 +13011,7 @@
         <xdr:cNvPr id="42" name="圆角矩形 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13075,7 +13075,7 @@
         <xdr:cNvPr id="43" name="矩形 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13141,7 +13141,7 @@
         <xdr:cNvPr id="44" name="文本框 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13228,7 +13228,7 @@
         <xdr:cNvPr id="45" name="图片 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13271,7 +13271,7 @@
         <xdr:cNvPr id="46" name="文本框 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13352,7 +13352,7 @@
         <xdr:cNvPr id="56" name="文本框 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13434,7 +13434,7 @@
         <xdr:cNvPr id="67" name="直接连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13484,7 +13484,7 @@
         <xdr:cNvPr id="68" name="文本框 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13553,7 +13553,7 @@
         <xdr:cNvPr id="69" name="图片 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000045000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13608,7 +13608,7 @@
         <xdr:cNvPr id="70" name="文本框 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13702,7 +13702,7 @@
         <xdr:cNvPr id="71" name="文本框 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13784,7 +13784,7 @@
         <xdr:cNvPr id="72" name="文本框 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13858,7 +13858,7 @@
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>57980</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13866,7 +13866,7 @@
         <xdr:cNvPr id="73" name="矩形 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13937,7 +13937,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13990,7 +13990,7 @@
         <xdr:cNvPr id="74" name="文本框 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14077,7 +14077,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14130,7 +14130,7 @@
         <xdr:cNvPr id="75" name="文本框 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14212,7 +14212,7 @@
         <xdr:cNvPr id="76" name="文本框 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14292,7 +14292,7 @@
         <xdr:cNvPr id="77" name="文本框 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14374,7 +14374,7 @@
         <xdr:cNvPr id="78" name="文本框 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14454,7 +14454,7 @@
         <xdr:cNvPr id="79" name="文本框 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14535,7 +14535,7 @@
         <xdr:cNvPr id="80" name="文本框 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14601,13 +14601,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14615,7 +14615,7 @@
         <xdr:cNvPr id="81" name="直接连接符 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000051000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14670,7 +14670,7 @@
         <xdr:cNvPr id="82" name="文本框 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14751,7 +14751,7 @@
         <xdr:cNvPr id="83" name="文本框 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000053000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14823,7 +14823,7 @@
         <xdr:cNvPr id="84" name="文本框 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000054000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14893,7 +14893,7 @@
         <xdr:cNvPr id="85" name="文本框 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14958,7 +14958,7 @@
         <xdr:cNvPr id="86" name="文本框 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000056000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15050,7 +15050,7 @@
         <xdr:cNvPr id="87" name="文本框 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000057000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15131,7 +15131,7 @@
         <xdr:cNvPr id="88" name="文本框 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000058000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15212,7 +15212,7 @@
         <xdr:cNvPr id="89" name="文本框 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000059000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15293,7 +15293,7 @@
         <xdr:cNvPr id="90" name="文本框 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15374,7 +15374,7 @@
         <xdr:cNvPr id="91" name="文本框 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15441,13 +15441,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>144534</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>243509</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15455,7 +15455,7 @@
         <xdr:cNvPr id="93" name="文本框 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15522,13 +15522,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15536,7 +15536,7 @@
         <xdr:cNvPr id="3" name="矩形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15586,13 +15586,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>138734</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15600,7 +15600,7 @@
         <xdr:cNvPr id="94" name="文本框 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15665,13 +15665,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153865</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>134815</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>119429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15679,7 +15679,7 @@
         <xdr:cNvPr id="115" name="文本框 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7459095-7A27-4BB6-9E47-2683DE8E2813}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7459095-7A27-4BB6-9E47-2683DE8E2813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15763,13 +15763,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>197093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>48358</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>212002</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15777,7 +15777,7 @@
         <xdr:cNvPr id="116" name="文本框 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C02077E3-5134-4B87-9BB0-03EE371C0B91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02077E3-5134-4B87-9BB0-03EE371C0B91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15842,13 +15842,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>154598</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>135548</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>192697</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15856,7 +15856,7 @@
         <xdr:cNvPr id="117" name="文本框 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C07832FA-1D88-4E63-AC7F-FC60806BB637}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07832FA-1D88-4E63-AC7F-FC60806BB637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15935,13 +15935,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>13921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>48358</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>28830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15949,7 +15949,7 @@
         <xdr:cNvPr id="118" name="文本框 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C17C54AB-7995-4D09-9189-873EDF81D732}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17C54AB-7995-4D09-9189-873EDF81D732}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16014,13 +16014,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>154598</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>135548</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16028,7 +16028,7 @@
         <xdr:cNvPr id="119" name="文本框 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCDC2410-C89D-4610-AC36-167550688F43}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDC2410-C89D-4610-AC36-167550688F43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16095,13 +16095,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>21979</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>109169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>41029</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>124078</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16109,7 +16109,7 @@
         <xdr:cNvPr id="120" name="文本框 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA22D101-4FCA-4B61-9DC0-B93771D5F7B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA22D101-4FCA-4B61-9DC0-B93771D5F7B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16174,13 +16174,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>147269</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>128219</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>104773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16188,7 +16188,7 @@
         <xdr:cNvPr id="121" name="文本框 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7E9CC69-A53A-420B-860D-47D267637F1B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E9CC69-A53A-420B-860D-47D267637F1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16243,13 +16243,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>204421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>33704</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>219330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16257,7 +16257,7 @@
         <xdr:cNvPr id="122" name="文本框 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B429102B-029A-4144-A195-5612DB98B7A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B429102B-029A-4144-A195-5612DB98B7A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16322,13 +16322,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139944</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>120894</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16336,7 +16336,7 @@
         <xdr:cNvPr id="123" name="文本框 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9427476D-39BD-493A-A9B6-5C04D152DFC8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9427476D-39BD-493A-A9B6-5C04D152DFC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16391,13 +16391,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>87924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>106239</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>116754</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16405,7 +16405,7 @@
         <xdr:cNvPr id="2" name="组合 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0037FD49-1B02-4400-BAB2-C970B93FE25F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0037FD49-1B02-4400-BAB2-C970B93FE25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16413,7 +16413,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4969565" y="19527207"/>
+          <a:off x="4969565" y="18657533"/>
           <a:ext cx="3485544" cy="318721"/>
           <a:chOff x="4945673" y="18969405"/>
           <a:chExt cx="3469297" cy="314580"/>
@@ -16424,7 +16424,7 @@
           <xdr:cNvPr id="124" name="文本框 123">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B746C353-0182-47AC-8A1C-10326A11504D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B746C353-0182-47AC-8A1C-10326A11504D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16488,7 +16488,7 @@
           <xdr:cNvPr id="125" name="文本框 124">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FBD18E2-505B-4819-95E4-D34C25BA4559}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBD18E2-505B-4819-95E4-D34C25BA4559}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16544,13 +16544,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>175845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>106239</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>204675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16558,7 +16558,7 @@
         <xdr:cNvPr id="126" name="组合 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0330D93B-5C48-4F59-BC5B-93700EB50AF1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0330D93B-5C48-4F59-BC5B-93700EB50AF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16566,7 +16566,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4969565" y="19905019"/>
+          <a:off x="4969565" y="19035345"/>
           <a:ext cx="3485544" cy="318721"/>
           <a:chOff x="4945673" y="18969405"/>
           <a:chExt cx="3469297" cy="314580"/>
@@ -16577,7 +16577,7 @@
           <xdr:cNvPr id="127" name="文本框 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8AAF79E-8D7B-4E59-B159-E6840D918D67}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AAF79E-8D7B-4E59-B159-E6840D918D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16641,7 +16641,7 @@
           <xdr:cNvPr id="128" name="文本框 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F3424CF-658D-4A5F-AC7A-09C0D75CD93B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3424CF-658D-4A5F-AC7A-09C0D75CD93B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16697,13 +16697,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>278423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>106241</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>21503</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16711,7 +16711,7 @@
         <xdr:cNvPr id="129" name="组合 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C983724D-FED7-4ABC-879A-AEBF0B459442}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C983724D-FED7-4ABC-879A-AEBF0B459442}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16719,7 +16719,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4969567" y="20297488"/>
+          <a:off x="4969567" y="19427814"/>
           <a:ext cx="3485544" cy="322863"/>
           <a:chOff x="4945673" y="18969405"/>
           <a:chExt cx="3469297" cy="314580"/>
@@ -16730,7 +16730,7 @@
           <xdr:cNvPr id="130" name="文本框 129">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F97D0CDD-977B-4573-8B66-36AD126C70AA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97D0CDD-977B-4573-8B66-36AD126C70AA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16794,7 +16794,7 @@
           <xdr:cNvPr id="131" name="文本框 130">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F2B16F6-4298-4B73-B235-790E3ED77418}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2B16F6-4298-4B73-B235-790E3ED77418}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16850,13 +16850,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>106241</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>116754</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16864,7 +16864,7 @@
         <xdr:cNvPr id="132" name="组合 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B322542-34F2-4BC1-81AE-584E22DB1B18}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B322542-34F2-4BC1-81AE-584E22DB1B18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16872,7 +16872,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4969567" y="20664791"/>
+          <a:off x="4969567" y="19795117"/>
           <a:ext cx="3485544" cy="340702"/>
           <a:chOff x="4945673" y="19042675"/>
           <a:chExt cx="3469297" cy="336561"/>
@@ -16883,7 +16883,7 @@
           <xdr:cNvPr id="133" name="文本框 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA3523FC-CECC-4347-ADDC-16D034940E39}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3523FC-CECC-4347-ADDC-16D034940E39}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16947,7 +16947,7 @@
           <xdr:cNvPr id="134" name="文本框 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F22D9B6-28E1-47EA-9614-725A6A21A5BE}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F22D9B6-28E1-47EA-9614-725A6A21A5BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17003,13 +17003,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>161194</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>183175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>106241</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>212005</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -17017,7 +17017,7 @@
         <xdr:cNvPr id="135" name="组合 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA3E6F66-9DE6-4882-B4D2-AED6C1D9A0E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3E6F66-9DE6-4882-B4D2-AED6C1D9A0E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17025,8 +17025,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4931977" y="21071914"/>
-          <a:ext cx="3523134" cy="318721"/>
+          <a:off x="4931977" y="20202240"/>
+          <a:ext cx="3523134" cy="318722"/>
           <a:chOff x="4909038" y="18969405"/>
           <a:chExt cx="3505932" cy="314580"/>
         </a:xfrm>
@@ -17036,7 +17036,7 @@
           <xdr:cNvPr id="136" name="文本框 135">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF55FB49-A99B-41F4-9C84-5C9C8903F126}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF55FB49-A99B-41F4-9C84-5C9C8903F126}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17100,7 +17100,7 @@
           <xdr:cNvPr id="137" name="文本框 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBEA7F19-9DD0-46A0-A9F8-3793DBE5758D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEA7F19-9DD0-46A0-A9F8-3793DBE5758D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17156,13 +17156,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>57979</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17170,7 +17170,7 @@
         <xdr:cNvPr id="139" name="直接连接符 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{951FB10C-E243-4085-A5EF-50DA0B352070}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951FB10C-E243-4085-A5EF-50DA0B352070}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17206,13 +17206,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17220,7 +17220,7 @@
         <xdr:cNvPr id="140" name="文本框 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F30841A0-B3BC-4407-AFE4-16817D0394FF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30841A0-B3BC-4407-AFE4-16817D0394FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17290,13 +17290,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>14511</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>199523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>127154</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>218243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17304,7 +17304,7 @@
         <xdr:cNvPr id="141" name="图片 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95EAE8E6-A123-4138-99F9-BBFB5F095B43}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EAE8E6-A123-4138-99F9-BBFB5F095B43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17345,13 +17345,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>40424</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>209424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>49949</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>228474</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17359,7 +17359,7 @@
         <xdr:cNvPr id="142" name="文本框 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99A11743-C175-4064-A822-CCF1B07DCAEC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A11743-C175-4064-A822-CCF1B07DCAEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17424,13 +17424,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>10197</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>19722</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17438,7 +17438,7 @@
         <xdr:cNvPr id="143" name="文本框 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2DE8646-5796-4A00-8E40-88A25B356350}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DE8646-5796-4A00-8E40-88A25B356350}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17506,13 +17506,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>125482</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>217832</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17520,7 +17520,7 @@
         <xdr:cNvPr id="144" name="文本框 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2273A2A4-4AC5-4F36-BDEC-A5E50D28A425}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2273A2A4-4AC5-4F36-BDEC-A5E50D28A425}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17588,13 +17588,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107675</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>82825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>57980</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>265042</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17602,7 +17602,7 @@
         <xdr:cNvPr id="145" name="矩形 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56B79234-17DF-45E0-8260-6CCE69049921}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B79234-17DF-45E0-8260-6CCE69049921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17654,13 +17654,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>41414</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>140808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>182218</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>157375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17668,7 +17668,7 @@
         <xdr:cNvPr id="146" name="矩形 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6542E3C1-2B18-4643-9CCB-4B78EF82EC51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6542E3C1-2B18-4643-9CCB-4B78EF82EC51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17726,13 +17726,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165651</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>165657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>175176</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>184708</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17740,7 +17740,7 @@
         <xdr:cNvPr id="147" name="文本框 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15EB2119-954E-443D-BBD9-1E649446175D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EB2119-954E-443D-BBD9-1E649446175D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17806,13 +17806,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>140806</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>149092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>150332</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>168143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17820,7 +17820,7 @@
         <xdr:cNvPr id="148" name="文本框 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{961B2F0E-A5B4-4C64-BC9A-48B85FEB5ADA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961B2F0E-A5B4-4C64-BC9A-48B85FEB5ADA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17886,13 +17886,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>16564</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>24851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>24845</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>49698</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17900,7 +17900,7 @@
         <xdr:cNvPr id="149" name="文本框 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C4770B-A670-4FD1-8F13-00AE8C0283AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C4770B-A670-4FD1-8F13-00AE8C0283AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17961,13 +17961,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>99390</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>41417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>231918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17975,7 +17975,7 @@
         <xdr:cNvPr id="150" name="文本框 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0DB0BB2-D056-4574-830E-D22D0FB5DA2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DB0BB2-D056-4574-830E-D22D0FB5DA2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18038,13 +18038,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>124237</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>16568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>207069</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18052,7 +18052,7 @@
         <xdr:cNvPr id="151" name="文本框 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47F4E848-2EB8-4A63-B816-F8C1296DCB1B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F4E848-2EB8-4A63-B816-F8C1296DCB1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18104,13 +18104,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>182219</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>157373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>176424</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18118,7 +18118,7 @@
         <xdr:cNvPr id="152" name="文本框 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A5168D1-0509-4717-B4F6-D23EF044203E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5168D1-0509-4717-B4F6-D23EF044203E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18184,13 +18184,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>34091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>121690</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>241151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18198,7 +18198,7 @@
         <xdr:cNvPr id="153" name="文本框 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{412E5F01-1986-4866-A072-275CB34705AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412E5F01-1986-4866-A072-275CB34705AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18249,13 +18249,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>182221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>182221</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18263,7 +18263,7 @@
         <xdr:cNvPr id="154" name="直接连接符 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DD3577F-18D7-4708-BD96-D747751B71F3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD3577F-18D7-4708-BD96-D747751B71F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18299,13 +18299,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>182218</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18313,7 +18313,7 @@
         <xdr:cNvPr id="155" name="文本框 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ECFDB5B-370F-4CD0-BD4B-0AB5BF009C2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECFDB5B-370F-4CD0-BD4B-0AB5BF009C2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18377,13 +18377,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>16561</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>33129</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18391,7 +18391,7 @@
         <xdr:cNvPr id="158" name="文本框 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7F03D97-A1FC-40A0-AB8A-B766A4E824A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F03D97-A1FC-40A0-AB8A-B766A4E824A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18452,13 +18452,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>91106</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>24849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>41411</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>215349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18466,7 +18466,7 @@
         <xdr:cNvPr id="159" name="文本框 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0A21B43-8B76-484C-B438-54A23F449C6F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A21B43-8B76-484C-B438-54A23F449C6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18525,13 +18525,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>115953</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18539,7 +18539,7 @@
         <xdr:cNvPr id="160" name="文本框 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42B26C32-AFCF-4E4A-B6CE-69D26CD91BB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B26C32-AFCF-4E4A-B6CE-69D26CD91BB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18591,13 +18591,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18605,7 +18605,7 @@
         <xdr:cNvPr id="162" name="直接连接符 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{016DACB3-15CE-4C8F-9464-5C7B95658945}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016DACB3-15CE-4C8F-9464-5C7B95658945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18641,13 +18641,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>33128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>173934</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>273323</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18655,7 +18655,7 @@
         <xdr:cNvPr id="163" name="文本框 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDC8EFE3-A710-4028-BFDA-FC59BD99755C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC8EFE3-A710-4028-BFDA-FC59BD99755C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18725,13 +18725,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>7326</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>43961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>129016</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>251021</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18739,7 +18739,7 @@
         <xdr:cNvPr id="171" name="文本框 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEA68461-035E-42D8-9ED0-567F11A4B64A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA68461-035E-42D8-9ED0-567F11A4B64A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18804,7 +18804,7 @@
         <xdr:cNvPr id="172" name="文本框 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ACABD9B-BD62-49DE-BD0E-7DE976A75C30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACABD9B-BD62-49DE-BD0E-7DE976A75C30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18855,13 +18855,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>14511</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>199523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>127154</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>218243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18869,7 +18869,7 @@
         <xdr:cNvPr id="175" name="图片 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D88C679-6A13-4712-BC57-D4115F40294C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D88C679-6A13-4712-BC57-D4115F40294C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18910,13 +18910,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>10197</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>19722</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18924,7 +18924,7 @@
         <xdr:cNvPr id="177" name="文本框 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{033D9A7B-3502-4411-A4E4-A381BDE0999C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033D9A7B-3502-4411-A4E4-A381BDE0999C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18992,13 +18992,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107675</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>82825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>57980</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>265042</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19006,7 +19006,7 @@
         <xdr:cNvPr id="179" name="矩形 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75CF9DA7-F87B-42AF-A750-244A8B2FCBBF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CF9DA7-F87B-42AF-A750-244A8B2FCBBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19058,13 +19058,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>124557</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>106241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>58711</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>106241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19072,7 +19072,7 @@
         <xdr:cNvPr id="196" name="直接连接符 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8A16ED2-260D-4FE9-9A38-091421F34BDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A16ED2-260D-4FE9-9A38-091421F34BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19108,13 +19108,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>162657</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>10257</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>104043</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19122,7 +19122,7 @@
         <xdr:cNvPr id="197" name="文本框 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCAF8731-4F00-4A63-986A-7D6F25256A8D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAF8731-4F00-4A63-986A-7D6F25256A8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19192,13 +19192,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>41156</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>77540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>50681</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>96590</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19206,7 +19206,7 @@
         <xdr:cNvPr id="198" name="文本框 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED4E97AC-C922-4023-9D26-6E93B5423D07}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4E97AC-C922-4023-9D26-6E93B5423D07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19276,13 +19276,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>116689</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>66898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>126214</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>85948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19290,7 +19290,7 @@
         <xdr:cNvPr id="199" name="文本框 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE50EB3D-1677-45A8-8D04-43AF41810DC6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE50EB3D-1677-45A8-8D04-43AF41810DC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19355,13 +19355,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>80598</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>36636</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19369,7 +19369,7 @@
         <xdr:cNvPr id="200" name="文本框 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30F17DD6-76E6-4683-89D2-2256E5BDE8A6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F17DD6-76E6-4683-89D2-2256E5BDE8A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19430,13 +19430,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>139215</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>109908</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>14909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19444,7 +19444,7 @@
         <xdr:cNvPr id="201" name="文本框 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D1821B7-F5D4-413C-97AC-4E696D40DF9D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1821B7-F5D4-413C-97AC-4E696D40DF9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19509,13 +19509,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>102575</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>58613</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19523,7 +19523,7 @@
         <xdr:cNvPr id="202" name="文本框 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967C1866-C3FE-41DE-B1B3-3C574A4848F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967C1866-C3FE-41DE-B1B3-3C574A4848F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19584,13 +19584,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>139212</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>168519</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>29563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19598,7 +19598,7 @@
         <xdr:cNvPr id="203" name="文本框 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C14BE87-0227-47C3-B4E1-CC5245CE7875}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C14BE87-0227-47C3-B4E1-CC5245CE7875}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19663,13 +19663,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>124018</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>272051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>5351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19677,7 +19677,7 @@
         <xdr:cNvPr id="204" name="文本框 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBB0826A-AB80-485A-A350-FB205F35BB31}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB0826A-AB80-485A-A350-FB205F35BB31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19742,13 +19742,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>87924</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>278425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>43963</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>2200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19756,7 +19756,7 @@
         <xdr:cNvPr id="205" name="文本框 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAC04CA3-F1A0-48DE-99D4-7CD1D53626E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC04CA3-F1A0-48DE-99D4-7CD1D53626E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19811,13 +19811,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>73271</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>278424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>43964</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>7583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19825,7 +19825,7 @@
         <xdr:cNvPr id="206" name="文本框 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{510832D5-DC3D-49F7-A116-54E2DD550E7D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510832D5-DC3D-49F7-A116-54E2DD550E7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19890,13 +19890,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>188685</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>12587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>131662</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>29154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19904,7 +19904,7 @@
         <xdr:cNvPr id="208" name="矩形 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4C5896B-FC0D-4673-9141-DA124B89DF3B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C5896B-FC0D-4673-9141-DA124B89DF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19962,13 +19962,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>115095</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>37436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124620</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>56487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19976,7 +19976,7 @@
         <xdr:cNvPr id="209" name="文本框 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40DC8F87-F0F6-481C-A18D-A873B57CB294}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DC8F87-F0F6-481C-A18D-A873B57CB294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20042,13 +20042,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>90250</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>20871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>99776</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>39922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20056,7 +20056,7 @@
         <xdr:cNvPr id="210" name="文本框 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3794EDB-BBD9-4C28-8F1E-84E44AEF78CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3794EDB-BBD9-4C28-8F1E-84E44AEF78CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20122,13 +20122,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>92795</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>111024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>43100</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>15775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20136,7 +20136,7 @@
         <xdr:cNvPr id="212" name="文本框 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BEB1DC5-EAC7-48F7-8202-EDB641DE781C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEB1DC5-EAC7-48F7-8202-EDB641DE781C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20192,13 +20192,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>73681</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>108154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>57118</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>12905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20206,7 +20206,7 @@
         <xdr:cNvPr id="213" name="文本框 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00AAD619-D498-41F4-8C02-4157EC77DE42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AAD619-D498-41F4-8C02-4157EC77DE42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20258,13 +20258,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>131663</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>29152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>15386</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>48203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20272,7 +20272,7 @@
         <xdr:cNvPr id="214" name="文本框 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF881695-267C-4C3F-A0E9-1C22F2F55635}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF881695-267C-4C3F-A0E9-1C22F2F55635}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20337,13 +20337,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>155555</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>185883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>147273</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>185883</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20351,7 +20351,7 @@
         <xdr:cNvPr id="216" name="直接连接符 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBBD76EA-76F6-43DE-9D68-E16D55F21A8D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBD76EA-76F6-43DE-9D68-E16D55F21A8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20387,13 +20387,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>163837</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>141282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>131662</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>91586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20401,7 +20401,7 @@
         <xdr:cNvPr id="217" name="文本框 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A40B4F1A-6C07-4792-8594-75824B2DE58C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40B4F1A-6C07-4792-8594-75824B2DE58C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20463,13 +20463,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>135800</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>21184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86105</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>43960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20477,7 +20477,7 @@
         <xdr:cNvPr id="219" name="文本框 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55D2B6A8-A3DA-46B6-A9F4-866E9E37B964}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D2B6A8-A3DA-46B6-A9F4-866E9E37B964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20529,13 +20529,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>65397</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>3662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180401</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>194162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20543,7 +20543,7 @@
         <xdr:cNvPr id="220" name="文本框 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA04883B-E92E-4A03-94FB-E9ECBF7CDBE7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA04883B-E92E-4A03-94FB-E9ECBF7CDBE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20595,13 +20595,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>147271</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>110692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>139944</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>110692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20609,7 +20609,7 @@
         <xdr:cNvPr id="221" name="直接连接符 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6648065B-0E9F-4EF6-8388-83137F2E5C12}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6648065B-0E9F-4EF6-8388-83137F2E5C12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20645,13 +20645,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>155553</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>36790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>123378</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>276985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20659,7 +20659,7 @@
         <xdr:cNvPr id="222" name="文本框 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CD901FB-BB9B-4861-9120-98C2B8CBB94A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD901FB-BB9B-4861-9120-98C2B8CBB94A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20727,13 +20727,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>197604</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>21825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>81328</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>40876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20741,7 +20741,7 @@
         <xdr:cNvPr id="224" name="文本框 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6FDB0975-3DF5-425A-A7DD-A28B060469F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDB0975-3DF5-425A-A7DD-A28B060469F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20799,13 +20799,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>68585</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>133955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>84259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20813,7 +20813,7 @@
         <xdr:cNvPr id="225" name="文本框 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19827772-BE47-4EC6-9151-D80FB35A5B32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19827772-BE47-4EC6-9151-D80FB35A5B32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20879,13 +20879,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>178488</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>31378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>267432</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20893,7 +20893,7 @@
         <xdr:cNvPr id="226" name="文本框 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9BDC84B-758D-47D1-8EEB-AA0BA0CCDFE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BDC84B-758D-47D1-8EEB-AA0BA0CCDFE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20959,13 +20959,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>131343</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>272052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>5352</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20973,7 +20973,7 @@
         <xdr:cNvPr id="227" name="文本框 226">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795801A9-2526-4E8B-8B56-3D00467716F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795801A9-2526-4E8B-8B56-3D00467716F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21038,13 +21038,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>51288</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>51288</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>79004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21052,7 +21052,7 @@
         <xdr:cNvPr id="228" name="线形标注 2 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71F7E728-6AD3-45BB-8EB5-638A1E626FB0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F7E728-6AD3-45BB-8EB5-638A1E626FB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21125,7 +21125,7 @@
         <xdr:cNvPr id="156" name="文本框 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21207,7 +21207,7 @@
         <xdr:cNvPr id="161" name="文本框 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000059000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21325,329 +21325,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>41987</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>174412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>167471</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>189322</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="文本框 156">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1035900" y="18164238"/>
-          <a:ext cx="1715745" cy="304801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Tax</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>34946</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>174413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>183937</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="文本框 163">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1028859" y="18454130"/>
-          <a:ext cx="3211837" cy="299416"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>10</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>162499</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>210027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38674</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>143353</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="文本框 164">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1355195" y="18199853"/>
-          <a:ext cx="273740" cy="223217"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>91683</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>182694</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>18385</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>197603</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="文本框 165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4266118" y="18462411"/>
-          <a:ext cx="1715745" cy="304801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>%</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Malgun Gothic" panose="020B0503020000020004" pitchFamily="34" charset="-127"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22068,10 +21745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR101"/>
+  <dimension ref="A1:BR98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC63" sqref="AC63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BK59" sqref="BK59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -22289,13 +21966,13 @@
       <c r="BI61" s="4"/>
       <c r="BJ61" s="4"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A101" s="5" t="s">
+    <row r="98" spans="1:1" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A98" s="5" t="s">
         <v>15</v>
       </c>
     </row>
